--- a/data.xlsx
+++ b/data.xlsx
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="224">
   <si>
     <t xml:space="preserve">User Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\</t>
   </si>
   <si>
     <t xml:space="preserve"># of Skill Badges Completed</t>
@@ -911,8 +908,8 @@
   </sheetPr>
   <dimension ref="A1:I225"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -921,19 +918,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>0</v>
@@ -944,7 +938,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0</v>
@@ -955,7 +949,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>6</v>
@@ -966,7 +960,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>0</v>
@@ -977,7 +971,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>0</v>
@@ -988,7 +982,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>0</v>
@@ -999,7 +993,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>1</v>
@@ -1010,7 +1004,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>0</v>
@@ -1021,7 +1015,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>0</v>
@@ -1032,7 +1026,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>0</v>
@@ -1043,7 +1037,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>0</v>
@@ -1054,7 +1048,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>0</v>
@@ -1065,7 +1059,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>0</v>
@@ -1076,7 +1070,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>0</v>
@@ -1087,7 +1081,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>0</v>
@@ -1098,7 +1092,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>0</v>
@@ -1109,7 +1103,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>0</v>
@@ -1120,7 +1114,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>0</v>
@@ -1131,7 +1125,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>0</v>
@@ -1142,7 +1136,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>0</v>
@@ -1153,7 +1147,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>0</v>
@@ -1164,7 +1158,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>0</v>
@@ -1175,7 +1169,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>0</v>
@@ -1186,7 +1180,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>0</v>
@@ -1197,7 +1191,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>0</v>
@@ -1208,7 +1202,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>0</v>
@@ -1219,10 +1213,10 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>0</v>
@@ -1230,7 +1224,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>1</v>
@@ -1241,7 +1235,7 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>0</v>
@@ -1252,7 +1246,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>0</v>
@@ -1263,7 +1257,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>1</v>
@@ -1274,7 +1268,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>0</v>
@@ -1285,7 +1279,7 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>0</v>
@@ -1296,7 +1290,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>0</v>
@@ -1307,7 +1301,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>0</v>
@@ -1318,7 +1312,7 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>0</v>
@@ -1329,7 +1323,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>0</v>
@@ -1340,7 +1334,7 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G39" s="1" t="n">
         <v>0</v>
@@ -1351,7 +1345,7 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>0</v>
@@ -1362,7 +1356,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>0</v>
@@ -1373,7 +1367,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>0</v>
@@ -1384,7 +1378,7 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>0</v>
@@ -1395,7 +1389,7 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>0</v>
@@ -1406,7 +1400,7 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>0</v>
@@ -1417,7 +1411,7 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>0</v>
@@ -1428,7 +1422,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>0</v>
@@ -1439,7 +1433,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G48" s="1" t="n">
         <v>0</v>
@@ -1450,7 +1444,7 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G49" s="1" t="n">
         <v>0</v>
@@ -1461,7 +1455,7 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>0</v>
@@ -1472,7 +1466,7 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G51" s="1" t="n">
         <v>0</v>
@@ -1483,7 +1477,7 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G52" s="1" t="n">
         <v>19</v>
@@ -1494,7 +1488,7 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>0</v>
@@ -1505,7 +1499,7 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G54" s="1" t="n">
         <v>0</v>
@@ -1516,7 +1510,7 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>0</v>
@@ -1527,7 +1521,7 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G56" s="1" t="n">
         <v>0</v>
@@ -1538,7 +1532,7 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G57" s="1" t="n">
         <v>0</v>
@@ -1549,7 +1543,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G58" s="1" t="n">
         <v>0</v>
@@ -1560,7 +1554,7 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G59" s="1" t="n">
         <v>3</v>
@@ -1571,7 +1565,7 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G60" s="1" t="n">
         <v>0</v>
@@ -1582,7 +1576,7 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G61" s="1" t="n">
         <v>0</v>
@@ -1593,7 +1587,7 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G62" s="1" t="n">
         <v>0</v>
@@ -1604,10 +1598,10 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I63" s="1" t="n">
         <v>0</v>
@@ -1615,7 +1609,7 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G64" s="1" t="n">
         <v>0</v>
@@ -1626,7 +1620,7 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G65" s="1" t="n">
         <v>0</v>
@@ -1637,7 +1631,7 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G66" s="1" t="n">
         <v>0</v>
@@ -1648,7 +1642,7 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G67" s="1" t="n">
         <v>0</v>
@@ -1659,10 +1653,10 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" s="1" t="n">
         <v>0</v>
@@ -1670,7 +1664,7 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G69" s="1" t="n">
         <v>0</v>
@@ -1681,10 +1675,10 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" s="1" t="n">
         <v>0</v>
@@ -1692,7 +1686,7 @@
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G71" s="1" t="n">
         <v>0</v>
@@ -1703,7 +1697,7 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G72" s="1" t="n">
         <v>0</v>
@@ -1714,7 +1708,7 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G73" s="1" t="n">
         <v>0</v>
@@ -1725,7 +1719,7 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G74" s="1" t="n">
         <v>0</v>
@@ -1736,7 +1730,7 @@
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G75" s="1" t="n">
         <v>0</v>
@@ -1747,10 +1741,10 @@
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I76" s="1" t="n">
         <v>0</v>
@@ -1758,7 +1752,7 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G77" s="1" t="n">
         <v>0</v>
@@ -1769,7 +1763,7 @@
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G78" s="1" t="n">
         <v>0</v>
@@ -1780,7 +1774,7 @@
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G79" s="1" t="n">
         <v>0</v>
@@ -1791,7 +1785,7 @@
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G80" s="1" t="n">
         <v>0</v>
@@ -1802,7 +1796,7 @@
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G81" s="1" t="n">
         <v>0</v>
@@ -1813,7 +1807,7 @@
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G82" s="1" t="n">
         <v>0</v>
@@ -1824,7 +1818,7 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G83" s="1" t="n">
         <v>0</v>
@@ -1835,7 +1829,7 @@
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G84" s="1" t="n">
         <v>0</v>
@@ -1846,7 +1840,7 @@
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G85" s="1" t="n">
         <v>0</v>
@@ -1857,7 +1851,7 @@
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G86" s="1" t="n">
         <v>0</v>
@@ -1868,7 +1862,7 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G87" s="1" t="n">
         <v>0</v>
@@ -1879,7 +1873,7 @@
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G88" s="1" t="n">
         <v>0</v>
@@ -1890,7 +1884,7 @@
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G89" s="1" t="n">
         <v>4</v>
@@ -1901,7 +1895,7 @@
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G90" s="1" t="n">
         <v>0</v>
@@ -1912,7 +1906,7 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="n">
         <v>0</v>
@@ -1923,7 +1917,7 @@
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G92" s="1" t="n">
         <v>0</v>
@@ -1934,7 +1928,7 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G93" s="1" t="n">
         <v>0</v>
@@ -1945,7 +1939,7 @@
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G94" s="1" t="n">
         <v>0</v>
@@ -1956,7 +1950,7 @@
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G95" s="1" t="n">
         <v>0</v>
@@ -1967,7 +1961,7 @@
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G96" s="1" t="n">
         <v>0</v>
@@ -1978,7 +1972,7 @@
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G97" s="1" t="n">
         <v>0</v>
@@ -1989,7 +1983,7 @@
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G98" s="1" t="n">
         <v>0</v>
@@ -2000,7 +1994,7 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G99" s="1" t="n">
         <v>0</v>
@@ -2011,7 +2005,7 @@
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G100" s="1" t="n">
         <v>0</v>
@@ -2022,7 +2016,7 @@
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G101" s="1" t="n">
         <v>0</v>
@@ -2033,7 +2027,7 @@
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G102" s="1" t="n">
         <v>0</v>
@@ -2044,7 +2038,7 @@
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G103" s="1" t="n">
         <v>0</v>
@@ -2055,7 +2049,7 @@
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G104" s="1" t="n">
         <v>0</v>
@@ -2066,7 +2060,7 @@
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G105" s="1" t="n">
         <v>0</v>
@@ -2077,7 +2071,7 @@
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G106" s="1" t="n">
         <v>0</v>
@@ -2088,7 +2082,7 @@
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G107" s="1" t="n">
         <v>0</v>
@@ -2099,7 +2093,7 @@
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G108" s="1" t="n">
         <v>0</v>
@@ -2110,7 +2104,7 @@
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G109" s="1" t="n">
         <v>0</v>
@@ -2121,7 +2115,7 @@
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G110" s="1" t="n">
         <v>0</v>
@@ -2132,7 +2126,7 @@
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G111" s="1" t="n">
         <v>0</v>
@@ -2143,7 +2137,7 @@
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G112" s="1" t="n">
         <v>0</v>
@@ -2154,7 +2148,7 @@
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G113" s="1" t="n">
         <v>0</v>
@@ -2165,7 +2159,7 @@
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G114" s="1" t="n">
         <v>0</v>
@@ -2176,7 +2170,7 @@
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G115" s="1" t="n">
         <v>0</v>
@@ -2187,7 +2181,7 @@
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G116" s="1" t="n">
         <v>0</v>
@@ -2198,7 +2192,7 @@
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G117" s="1" t="n">
         <v>0</v>
@@ -2209,7 +2203,7 @@
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G118" s="1" t="n">
         <v>0</v>
@@ -2220,7 +2214,7 @@
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G119" s="1" t="n">
         <v>0</v>
@@ -2231,7 +2225,7 @@
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G120" s="1" t="n">
         <v>0</v>
@@ -2242,7 +2236,7 @@
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G121" s="1" t="n">
         <v>0</v>
@@ -2253,7 +2247,7 @@
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G122" s="1" t="n">
         <v>0</v>
@@ -2264,7 +2258,7 @@
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G123" s="1" t="n">
         <v>2</v>
@@ -2275,7 +2269,7 @@
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G124" s="1" t="n">
         <v>0</v>
@@ -2286,10 +2280,10 @@
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G125" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" s="1" t="n">
         <v>0</v>
@@ -2297,7 +2291,7 @@
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G126" s="1" t="n">
         <v>0</v>
@@ -2308,7 +2302,7 @@
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G127" s="1" t="n">
         <v>0</v>
@@ -2319,7 +2313,7 @@
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G128" s="1" t="n">
         <v>0</v>
@@ -2330,7 +2324,7 @@
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G129" s="1" t="n">
         <v>0</v>
@@ -2341,7 +2335,7 @@
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G130" s="1" t="n">
         <v>0</v>
@@ -2352,7 +2346,7 @@
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G131" s="1" t="n">
         <v>0</v>
@@ -2363,7 +2357,7 @@
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G132" s="1" t="n">
         <v>3</v>
@@ -2374,7 +2368,7 @@
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G133" s="1" t="n">
         <v>0</v>
@@ -2385,7 +2379,7 @@
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G134" s="1" t="n">
         <v>0</v>
@@ -2396,7 +2390,7 @@
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G135" s="1" t="n">
         <v>1</v>
@@ -2407,7 +2401,7 @@
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G136" s="1" t="n">
         <v>0</v>
@@ -2418,7 +2412,7 @@
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G137" s="1" t="n">
         <v>0</v>
@@ -2429,7 +2423,7 @@
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G138" s="1" t="n">
         <v>0</v>
@@ -2440,7 +2434,7 @@
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G139" s="1" t="n">
         <v>19</v>
@@ -2451,7 +2445,7 @@
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G140" s="1" t="n">
         <v>0</v>
@@ -2462,7 +2456,7 @@
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G141" s="1" t="n">
         <v>1</v>
@@ -2473,7 +2467,7 @@
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G142" s="1" t="n">
         <v>19</v>
@@ -2484,7 +2478,7 @@
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G143" s="1" t="n">
         <v>6</v>
@@ -2495,7 +2489,7 @@
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G144" s="1" t="n">
         <v>0</v>
@@ -2506,7 +2500,7 @@
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G145" s="1" t="n">
         <v>0</v>
@@ -2517,7 +2511,7 @@
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G146" s="1" t="n">
         <v>0</v>
@@ -2528,7 +2522,7 @@
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G147" s="1" t="n">
         <v>0</v>
@@ -2539,7 +2533,7 @@
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G148" s="1" t="n">
         <v>0</v>
@@ -2550,7 +2544,7 @@
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G149" s="1" t="n">
         <v>0</v>
@@ -2561,7 +2555,7 @@
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G150" s="1" t="n">
         <v>0</v>
@@ -2572,7 +2566,7 @@
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G151" s="1" t="n">
         <v>0</v>
@@ -2583,7 +2577,7 @@
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G152" s="1" t="n">
         <v>0</v>
@@ -2594,7 +2588,7 @@
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G153" s="1" t="n">
         <v>0</v>
@@ -2605,7 +2599,7 @@
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G154" s="1" t="n">
         <v>4</v>
@@ -2616,7 +2610,7 @@
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G155" s="1" t="n">
         <v>0</v>
@@ -2627,7 +2621,7 @@
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G156" s="1" t="n">
         <v>19</v>
@@ -2638,7 +2632,7 @@
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G157" s="1" t="n">
         <v>0</v>
@@ -2649,7 +2643,7 @@
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G158" s="1" t="n">
         <v>0</v>
@@ -2660,7 +2654,7 @@
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G159" s="1" t="n">
         <v>0</v>
@@ -2671,7 +2665,7 @@
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G160" s="1" t="n">
         <v>0</v>
@@ -2682,7 +2676,7 @@
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G161" s="1" t="n">
         <v>0</v>
@@ -2693,7 +2687,7 @@
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G162" s="1" t="n">
         <v>0</v>
@@ -2704,7 +2698,7 @@
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G163" s="1" t="n">
         <v>0</v>
@@ -2715,7 +2709,7 @@
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G164" s="1" t="n">
         <v>0</v>
@@ -2726,7 +2720,7 @@
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G165" s="1" t="n">
         <v>0</v>
@@ -2737,7 +2731,7 @@
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G166" s="1" t="n">
         <v>0</v>
@@ -2748,7 +2742,7 @@
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G167" s="1" t="n">
         <v>0</v>
@@ -2759,7 +2753,7 @@
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G168" s="1" t="n">
         <v>0</v>
@@ -2770,7 +2764,7 @@
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G169" s="1" t="n">
         <v>0</v>
@@ -2781,7 +2775,7 @@
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G170" s="1" t="n">
         <v>0</v>
@@ -2792,7 +2786,7 @@
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G171" s="1" t="n">
         <v>0</v>
@@ -2803,7 +2797,7 @@
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G172" s="1" t="n">
         <v>0</v>
@@ -2814,7 +2808,7 @@
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G173" s="1" t="n">
         <v>0</v>
@@ -2825,7 +2819,7 @@
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G174" s="1" t="n">
         <v>0</v>
@@ -2836,7 +2830,7 @@
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G175" s="1" t="n">
         <v>0</v>
@@ -2847,7 +2841,7 @@
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G176" s="1" t="n">
         <v>0</v>
@@ -2858,7 +2852,7 @@
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G177" s="1" t="n">
         <v>0</v>
@@ -2869,7 +2863,7 @@
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G178" s="1" t="n">
         <v>0</v>
@@ -2880,10 +2874,10 @@
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G179" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" s="1" t="n">
         <v>0</v>
@@ -2891,7 +2885,7 @@
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G180" s="1" t="n">
         <v>0</v>
@@ -2902,7 +2896,7 @@
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G181" s="1" t="n">
         <v>0</v>
@@ -2913,7 +2907,7 @@
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G182" s="1" t="n">
         <v>0</v>
@@ -2924,7 +2918,7 @@
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G183" s="1" t="n">
         <v>0</v>
@@ -2935,7 +2929,7 @@
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G184" s="1" t="n">
         <v>0</v>
@@ -2946,7 +2940,7 @@
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G185" s="1" t="n">
         <v>0</v>
@@ -2957,7 +2951,7 @@
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G186" s="1" t="n">
         <v>0</v>
@@ -2968,7 +2962,7 @@
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G187" s="1" t="n">
         <v>0</v>
@@ -2979,7 +2973,7 @@
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G188" s="1" t="n">
         <v>0</v>
@@ -2990,7 +2984,7 @@
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G189" s="1" t="n">
         <v>0</v>
@@ -3001,7 +2995,7 @@
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G190" s="1" t="n">
         <v>0</v>
@@ -3012,7 +3006,7 @@
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G191" s="1" t="n">
         <v>0</v>
@@ -3023,7 +3017,7 @@
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G192" s="1" t="n">
         <v>0</v>
@@ -3034,7 +3028,7 @@
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G193" s="1" t="n">
         <v>0</v>
@@ -3045,7 +3039,7 @@
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G194" s="1" t="n">
         <v>0</v>
@@ -3056,7 +3050,7 @@
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G195" s="1" t="n">
         <v>0</v>
@@ -3067,7 +3061,7 @@
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G196" s="1" t="n">
         <v>0</v>
@@ -3078,7 +3072,7 @@
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G197" s="1" t="n">
         <v>0</v>
@@ -3089,7 +3083,7 @@
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G198" s="1" t="n">
         <v>0</v>
@@ -3100,7 +3094,7 @@
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G199" s="1" t="n">
         <v>0</v>
@@ -3111,7 +3105,7 @@
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G200" s="1" t="n">
         <v>0</v>
@@ -3122,7 +3116,7 @@
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G201" s="1" t="n">
         <v>0</v>
@@ -3133,7 +3127,7 @@
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G202" s="1" t="n">
         <v>9</v>
@@ -3144,7 +3138,7 @@
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G203" s="1" t="n">
         <v>9</v>
@@ -3155,7 +3149,7 @@
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G204" s="1" t="n">
         <v>0</v>
@@ -3166,7 +3160,7 @@
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G205" s="1" t="n">
         <v>2</v>
@@ -3177,7 +3171,7 @@
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G206" s="1" t="n">
         <v>0</v>
@@ -3188,7 +3182,7 @@
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G207" s="1" t="n">
         <v>0</v>
@@ -3199,7 +3193,7 @@
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G208" s="1" t="n">
         <v>0</v>
@@ -3210,7 +3204,7 @@
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G209" s="1" t="n">
         <v>0</v>
@@ -3221,7 +3215,7 @@
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G210" s="1" t="n">
         <v>0</v>
@@ -3232,7 +3226,7 @@
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G211" s="1" t="n">
         <v>0</v>
@@ -3243,7 +3237,7 @@
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G212" s="1" t="n">
         <v>0</v>
@@ -3254,7 +3248,7 @@
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G213" s="1" t="n">
         <v>0</v>
@@ -3265,10 +3259,10 @@
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G214" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I214" s="1" t="n">
         <v>0</v>
@@ -3276,7 +3270,7 @@
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G215" s="1" t="n">
         <v>0</v>
@@ -3287,7 +3281,7 @@
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G216" s="1" t="n">
         <v>0</v>
@@ -3298,7 +3292,7 @@
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G217" s="1" t="n">
         <v>0</v>
@@ -3309,7 +3303,7 @@
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G218" s="1" t="n">
         <v>0</v>
@@ -3320,7 +3314,7 @@
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G219" s="1" t="n">
         <v>0</v>
@@ -3331,7 +3325,7 @@
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G220" s="1" t="n">
         <v>0</v>
@@ -3342,7 +3336,7 @@
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G221" s="1" t="n">
         <v>0</v>
@@ -3353,7 +3347,7 @@
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G222" s="1" t="n">
         <v>0</v>
@@ -3364,7 +3358,7 @@
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G223" s="1" t="n">
         <v>0</v>
@@ -3375,7 +3369,7 @@
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G224" s="1" t="n">
         <v>0</v>
@@ -3386,7 +3380,7 @@
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G225" s="1" t="n">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="225">
   <si>
     <t xml:space="preserve">User Name</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ayush Pandey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 3: Generative AI [Game]</t>
   </si>
   <si>
     <t xml:space="preserve">Aditya Shrivastava</t>
@@ -906,10 +909,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I225"/>
+  <dimension ref="A1:J225"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -952,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>0</v>
@@ -996,7 +999,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>0</v>
@@ -1051,7 +1054,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>0</v>
@@ -1062,7 +1065,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>0</v>
@@ -1172,7 +1175,7 @@
         <v>25</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>0</v>
@@ -1183,7 +1186,7 @@
         <v>26</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>0</v>
@@ -1216,7 +1219,7 @@
         <v>29</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>0</v>
@@ -1326,7 +1329,7 @@
         <v>39</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="1" t="n">
         <v>0</v>
@@ -1485,10 +1488,13 @@
       <c r="I52" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J52" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>0</v>
@@ -1499,7 +1505,7 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G54" s="1" t="n">
         <v>0</v>
@@ -1510,7 +1516,7 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>0</v>
@@ -1521,7 +1527,7 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G56" s="1" t="n">
         <v>0</v>
@@ -1532,7 +1538,7 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G57" s="1" t="n">
         <v>0</v>
@@ -1543,7 +1549,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G58" s="1" t="n">
         <v>0</v>
@@ -1554,7 +1560,7 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G59" s="1" t="n">
         <v>3</v>
@@ -1565,7 +1571,7 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G60" s="1" t="n">
         <v>0</v>
@@ -1576,7 +1582,7 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G61" s="1" t="n">
         <v>0</v>
@@ -1587,7 +1593,7 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G62" s="1" t="n">
         <v>0</v>
@@ -1598,7 +1604,7 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G63" s="1" t="n">
         <v>11</v>
@@ -1609,7 +1615,7 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G64" s="1" t="n">
         <v>0</v>
@@ -1620,7 +1626,7 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G65" s="1" t="n">
         <v>0</v>
@@ -1631,7 +1637,7 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G66" s="1" t="n">
         <v>0</v>
@@ -1642,7 +1648,7 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G67" s="1" t="n">
         <v>0</v>
@@ -1653,10 +1659,10 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I68" s="1" t="n">
         <v>0</v>
@@ -1664,7 +1670,7 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G69" s="1" t="n">
         <v>0</v>
@@ -1675,10 +1681,10 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I70" s="1" t="n">
         <v>0</v>
@@ -1686,7 +1692,7 @@
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G71" s="1" t="n">
         <v>0</v>
@@ -1697,7 +1703,7 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G72" s="1" t="n">
         <v>0</v>
@@ -1708,7 +1714,7 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G73" s="1" t="n">
         <v>0</v>
@@ -1719,7 +1725,7 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G74" s="1" t="n">
         <v>0</v>
@@ -1730,7 +1736,7 @@
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G75" s="1" t="n">
         <v>0</v>
@@ -1741,10 +1747,10 @@
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I76" s="1" t="n">
         <v>0</v>
@@ -1752,7 +1758,7 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G77" s="1" t="n">
         <v>0</v>
@@ -1763,7 +1769,7 @@
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G78" s="1" t="n">
         <v>0</v>
@@ -1774,7 +1780,7 @@
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G79" s="1" t="n">
         <v>0</v>
@@ -1785,7 +1791,7 @@
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G80" s="1" t="n">
         <v>0</v>
@@ -1796,7 +1802,7 @@
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G81" s="1" t="n">
         <v>0</v>
@@ -1807,10 +1813,10 @@
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="1" t="n">
         <v>0</v>
@@ -1818,7 +1824,7 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G83" s="1" t="n">
         <v>0</v>
@@ -1829,7 +1835,7 @@
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G84" s="1" t="n">
         <v>0</v>
@@ -1840,7 +1846,7 @@
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G85" s="1" t="n">
         <v>0</v>
@@ -1851,7 +1857,7 @@
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G86" s="1" t="n">
         <v>0</v>
@@ -1862,7 +1868,7 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G87" s="1" t="n">
         <v>0</v>
@@ -1873,7 +1879,7 @@
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G88" s="1" t="n">
         <v>0</v>
@@ -1884,7 +1890,7 @@
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G89" s="1" t="n">
         <v>4</v>
@@ -1895,7 +1901,7 @@
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="n">
         <v>0</v>
@@ -1906,7 +1912,7 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G91" s="1" t="n">
         <v>0</v>
@@ -1917,7 +1923,7 @@
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G92" s="1" t="n">
         <v>0</v>
@@ -1928,7 +1934,7 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G93" s="1" t="n">
         <v>0</v>
@@ -1939,7 +1945,7 @@
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G94" s="1" t="n">
         <v>0</v>
@@ -1961,7 +1967,7 @@
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G96" s="1" t="n">
         <v>0</v>
@@ -1972,7 +1978,7 @@
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G97" s="1" t="n">
         <v>0</v>
@@ -1983,7 +1989,7 @@
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G98" s="1" t="n">
         <v>0</v>
@@ -1994,7 +2000,7 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G99" s="1" t="n">
         <v>0</v>
@@ -2005,7 +2011,7 @@
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G100" s="1" t="n">
         <v>0</v>
@@ -2016,7 +2022,7 @@
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G101" s="1" t="n">
         <v>0</v>
@@ -2027,7 +2033,7 @@
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G102" s="1" t="n">
         <v>0</v>
@@ -2038,7 +2044,7 @@
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G103" s="1" t="n">
         <v>0</v>
@@ -2049,7 +2055,7 @@
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G104" s="1" t="n">
         <v>0</v>
@@ -2060,7 +2066,7 @@
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G105" s="1" t="n">
         <v>0</v>
@@ -2071,7 +2077,7 @@
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G106" s="1" t="n">
         <v>0</v>
@@ -2082,7 +2088,7 @@
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G107" s="1" t="n">
         <v>0</v>
@@ -2093,7 +2099,7 @@
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G108" s="1" t="n">
         <v>0</v>
@@ -2104,7 +2110,7 @@
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G109" s="1" t="n">
         <v>0</v>
@@ -2115,7 +2121,7 @@
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G110" s="1" t="n">
         <v>0</v>
@@ -2126,7 +2132,7 @@
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G111" s="1" t="n">
         <v>0</v>
@@ -2137,7 +2143,7 @@
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G112" s="1" t="n">
         <v>0</v>
@@ -2148,7 +2154,7 @@
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G113" s="1" t="n">
         <v>0</v>
@@ -2159,7 +2165,7 @@
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G114" s="1" t="n">
         <v>0</v>
@@ -2170,10 +2176,10 @@
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G115" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I115" s="1" t="n">
         <v>0</v>
@@ -2181,7 +2187,7 @@
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G116" s="1" t="n">
         <v>0</v>
@@ -2192,7 +2198,7 @@
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G117" s="1" t="n">
         <v>0</v>
@@ -2203,7 +2209,7 @@
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G118" s="1" t="n">
         <v>0</v>
@@ -2214,7 +2220,7 @@
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G119" s="1" t="n">
         <v>0</v>
@@ -2225,7 +2231,7 @@
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G120" s="1" t="n">
         <v>0</v>
@@ -2236,7 +2242,7 @@
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G121" s="1" t="n">
         <v>0</v>
@@ -2247,7 +2253,7 @@
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G122" s="1" t="n">
         <v>0</v>
@@ -2258,7 +2264,7 @@
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G123" s="1" t="n">
         <v>2</v>
@@ -2269,7 +2275,7 @@
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G124" s="1" t="n">
         <v>0</v>
@@ -2280,7 +2286,7 @@
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G125" s="1" t="n">
         <v>1</v>
@@ -2291,7 +2297,7 @@
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G126" s="1" t="n">
         <v>0</v>
@@ -2302,7 +2308,7 @@
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G127" s="1" t="n">
         <v>0</v>
@@ -2313,7 +2319,7 @@
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G128" s="1" t="n">
         <v>0</v>
@@ -2324,7 +2330,7 @@
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G129" s="1" t="n">
         <v>0</v>
@@ -2335,7 +2341,7 @@
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G130" s="1" t="n">
         <v>0</v>
@@ -2346,7 +2352,7 @@
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G131" s="1" t="n">
         <v>0</v>
@@ -2357,7 +2363,7 @@
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G132" s="1" t="n">
         <v>3</v>
@@ -2368,7 +2374,7 @@
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G133" s="1" t="n">
         <v>0</v>
@@ -2379,7 +2385,7 @@
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G134" s="1" t="n">
         <v>0</v>
@@ -2390,10 +2396,10 @@
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G135" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I135" s="1" t="n">
         <v>0</v>
@@ -2401,7 +2407,7 @@
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G136" s="1" t="n">
         <v>0</v>
@@ -2412,7 +2418,7 @@
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G137" s="1" t="n">
         <v>0</v>
@@ -2423,7 +2429,7 @@
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G138" s="1" t="n">
         <v>0</v>
@@ -2434,7 +2440,7 @@
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G139" s="1" t="n">
         <v>19</v>
@@ -2445,7 +2451,7 @@
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G140" s="1" t="n">
         <v>0</v>
@@ -2456,7 +2462,7 @@
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G141" s="1" t="n">
         <v>1</v>
@@ -2467,7 +2473,7 @@
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G142" s="1" t="n">
         <v>19</v>
@@ -2478,7 +2484,7 @@
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G143" s="1" t="n">
         <v>6</v>
@@ -2486,10 +2492,13 @@
       <c r="I143" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J143" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G144" s="1" t="n">
         <v>0</v>
@@ -2500,7 +2509,7 @@
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G145" s="1" t="n">
         <v>0</v>
@@ -2511,7 +2520,7 @@
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G146" s="1" t="n">
         <v>0</v>
@@ -2522,7 +2531,7 @@
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G147" s="1" t="n">
         <v>0</v>
@@ -2533,7 +2542,7 @@
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G148" s="1" t="n">
         <v>0</v>
@@ -2544,7 +2553,7 @@
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G149" s="1" t="n">
         <v>0</v>
@@ -2555,7 +2564,7 @@
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G150" s="1" t="n">
         <v>0</v>
@@ -2566,7 +2575,7 @@
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G151" s="1" t="n">
         <v>0</v>
@@ -2577,7 +2586,7 @@
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G152" s="1" t="n">
         <v>0</v>
@@ -2588,7 +2597,7 @@
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G153" s="1" t="n">
         <v>0</v>
@@ -2599,7 +2608,7 @@
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G154" s="1" t="n">
         <v>4</v>
@@ -2610,7 +2619,7 @@
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G155" s="1" t="n">
         <v>0</v>
@@ -2621,7 +2630,7 @@
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G156" s="1" t="n">
         <v>19</v>
@@ -2629,10 +2638,13 @@
       <c r="I156" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J156" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G157" s="1" t="n">
         <v>0</v>
@@ -2643,7 +2655,7 @@
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G158" s="1" t="n">
         <v>0</v>
@@ -2654,7 +2666,7 @@
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G159" s="1" t="n">
         <v>0</v>
@@ -2665,7 +2677,7 @@
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G160" s="1" t="n">
         <v>0</v>
@@ -2676,7 +2688,7 @@
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G161" s="1" t="n">
         <v>0</v>
@@ -2687,7 +2699,7 @@
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G162" s="1" t="n">
         <v>0</v>
@@ -2698,7 +2710,7 @@
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G163" s="1" t="n">
         <v>0</v>
@@ -2709,7 +2721,7 @@
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G164" s="1" t="n">
         <v>0</v>
@@ -2720,7 +2732,7 @@
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G165" s="1" t="n">
         <v>0</v>
@@ -2731,7 +2743,7 @@
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G166" s="1" t="n">
         <v>0</v>
@@ -2742,7 +2754,7 @@
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G167" s="1" t="n">
         <v>0</v>
@@ -2753,7 +2765,7 @@
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G168" s="1" t="n">
         <v>0</v>
@@ -2764,7 +2776,7 @@
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G169" s="1" t="n">
         <v>0</v>
@@ -2775,7 +2787,7 @@
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G170" s="1" t="n">
         <v>0</v>
@@ -2786,7 +2798,7 @@
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G171" s="1" t="n">
         <v>0</v>
@@ -2797,7 +2809,7 @@
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G172" s="1" t="n">
         <v>0</v>
@@ -2808,7 +2820,7 @@
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G173" s="1" t="n">
         <v>0</v>
@@ -2819,7 +2831,7 @@
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G174" s="1" t="n">
         <v>0</v>
@@ -2830,10 +2842,10 @@
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G175" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I175" s="1" t="n">
         <v>0</v>
@@ -2841,7 +2853,7 @@
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G176" s="1" t="n">
         <v>0</v>
@@ -2852,7 +2864,7 @@
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G177" s="1" t="n">
         <v>0</v>
@@ -2863,7 +2875,7 @@
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G178" s="1" t="n">
         <v>0</v>
@@ -2874,10 +2886,10 @@
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G179" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I179" s="1" t="n">
         <v>0</v>
@@ -2885,7 +2897,7 @@
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G180" s="1" t="n">
         <v>0</v>
@@ -2896,10 +2908,10 @@
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G181" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I181" s="1" t="n">
         <v>0</v>
@@ -2907,10 +2919,10 @@
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G182" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I182" s="1" t="n">
         <v>0</v>
@@ -2918,7 +2930,7 @@
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G183" s="1" t="n">
         <v>0</v>
@@ -2929,7 +2941,7 @@
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G184" s="1" t="n">
         <v>0</v>
@@ -2940,7 +2952,7 @@
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G185" s="1" t="n">
         <v>0</v>
@@ -2951,7 +2963,7 @@
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G186" s="1" t="n">
         <v>0</v>
@@ -2962,7 +2974,7 @@
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G187" s="1" t="n">
         <v>0</v>
@@ -2973,7 +2985,7 @@
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G188" s="1" t="n">
         <v>0</v>
@@ -2984,7 +2996,7 @@
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G189" s="1" t="n">
         <v>0</v>
@@ -2995,7 +3007,7 @@
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G190" s="1" t="n">
         <v>0</v>
@@ -3006,7 +3018,7 @@
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G191" s="1" t="n">
         <v>0</v>
@@ -3017,7 +3029,7 @@
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G192" s="1" t="n">
         <v>0</v>
@@ -3028,7 +3040,7 @@
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G193" s="1" t="n">
         <v>0</v>
@@ -3039,7 +3051,7 @@
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G194" s="1" t="n">
         <v>0</v>
@@ -3050,7 +3062,7 @@
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G195" s="1" t="n">
         <v>0</v>
@@ -3061,7 +3073,7 @@
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G196" s="1" t="n">
         <v>0</v>
@@ -3072,7 +3084,7 @@
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G197" s="1" t="n">
         <v>0</v>
@@ -3083,7 +3095,7 @@
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G198" s="1" t="n">
         <v>0</v>
@@ -3094,7 +3106,7 @@
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G199" s="1" t="n">
         <v>0</v>
@@ -3105,7 +3117,7 @@
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G200" s="1" t="n">
         <v>0</v>
@@ -3116,7 +3128,7 @@
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G201" s="1" t="n">
         <v>0</v>
@@ -3127,10 +3139,10 @@
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G202" s="1" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I202" s="1" t="n">
         <v>0</v>
@@ -3138,10 +3150,10 @@
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G203" s="1" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I203" s="1" t="n">
         <v>0</v>
@@ -3149,7 +3161,7 @@
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G204" s="1" t="n">
         <v>0</v>
@@ -3160,7 +3172,7 @@
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G205" s="1" t="n">
         <v>2</v>
@@ -3171,7 +3183,7 @@
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G206" s="1" t="n">
         <v>0</v>
@@ -3182,7 +3194,7 @@
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G207" s="1" t="n">
         <v>0</v>
@@ -3193,7 +3205,7 @@
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G208" s="1" t="n">
         <v>0</v>
@@ -3204,7 +3216,7 @@
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G209" s="1" t="n">
         <v>0</v>
@@ -3215,7 +3227,7 @@
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G210" s="1" t="n">
         <v>0</v>
@@ -3226,7 +3238,7 @@
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G211" s="1" t="n">
         <v>0</v>
@@ -3237,7 +3249,7 @@
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G212" s="1" t="n">
         <v>0</v>
@@ -3248,7 +3260,7 @@
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G213" s="1" t="n">
         <v>0</v>
@@ -3259,10 +3271,10 @@
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G214" s="1" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I214" s="1" t="n">
         <v>0</v>
@@ -3270,7 +3282,7 @@
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G215" s="1" t="n">
         <v>0</v>
@@ -3281,7 +3293,7 @@
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G216" s="1" t="n">
         <v>0</v>
@@ -3292,7 +3304,7 @@
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G217" s="1" t="n">
         <v>0</v>
@@ -3303,7 +3315,7 @@
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G218" s="1" t="n">
         <v>0</v>
@@ -3314,7 +3326,7 @@
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G219" s="1" t="n">
         <v>0</v>
@@ -3325,7 +3337,7 @@
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G220" s="1" t="n">
         <v>0</v>
@@ -3336,7 +3348,7 @@
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G221" s="1" t="n">
         <v>0</v>
@@ -3347,7 +3359,7 @@
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G222" s="1" t="n">
         <v>0</v>
@@ -3358,7 +3370,7 @@
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G223" s="1" t="n">
         <v>0</v>
@@ -3369,7 +3381,7 @@
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G224" s="1" t="n">
         <v>0</v>
@@ -3380,7 +3392,7 @@
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G225" s="1" t="n">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="726">
   <si>
     <t xml:space="preserve">User Name</t>
   </si>
@@ -85,1944 +85,1965 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruhani Khurana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruhanikhurana0608@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/250fd839-26e6-4b22-b164-da595e3db62c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radhika Mehrotra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radhika.25153@stu.upes.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/cbdf7876-9381-4d02-8f98-1063c93063c4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deepak Soni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lonstriam@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e0986bcb-06f6-4e4c-bb8b-86c5045a5e7a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atrey Shukla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atrey.16787@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f8f81d2c-579c-49cc-b96f-554dbfb860b2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankit Malik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malikankit447@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/5c8d61a8-dfe2-413a-bc09-23b9bc2e89d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garvit Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garvitjain2007gj@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/329ea7ad-4f84-43e0-a0d9-70557c22b89d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nihita Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guptanihita@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/9cf419e6-2a1b-4c07-ae3f-76df9b4d0b3f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aastha Negi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aastha26negi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d44bba8f-270f-4106-9bc0-ed43c3d8bde9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shivansh Srivastava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onlyshivansh2005@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/63a47ed7-b940-4ccb-af2b-1cc324be84c3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parth Bhatt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wlfparth27@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b6ed5a61-16f0-455e-9530-fb80848a50eb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heervita Mistri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heervitamistri6@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e6c75767-675e-478b-9841-b106616023d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aryan Singh Shaktawat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shaktawat.aryan971@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d8a7509f-ba32-4164-9411-9ec26a016063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohan Batra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rohanbatraind@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/96716cb8-862b-49d0-9a4b-67376d7241da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stuti Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stutisingh17012005@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e18276a8-2113-49e8-982a-bf0b62ddc30b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pranav Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sharmapranav2245@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/dd3a3b24-b7ff-49fc-bb0d-65dbf8bcc16d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ojaswee Upadhyay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ojaswee2095@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3f576124-cd82-4385-ba10-159c969b65c5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prantik Sanki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prantiksanki1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/5482b0e1-eb2b-411f-99f1-70491d31db39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhumi Chugh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhumi.chugh99@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/44b07799-1648-450b-8357-c4283f7c4738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhyudaya Dutt Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhyudayadutt2007@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3f66ea3d-5ead-4e9d-b820-f6cb3a8c82b8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhavesh Rawat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cookingcapybara@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/549ac441-0e8d-48a7-843f-4a40e2e8d66b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devansh Bindal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devanshbindal16@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a6ccce90-6401-4a8a-b175-9c1af30b1bc4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saksham Bhardwaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sakshambhardwaj54@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/68063b6f-ea3b-4387-a14f-d8206449416c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soham Pahari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paharisuhan17@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/85716c99-6b59-406a-ac56-1164869aa040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahil narang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snarang445566@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/355616eb-38c2-46d8-a18a-687ba0cca3f9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meghna Dhakad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhakadmeghna88@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/74e09b04-5ec6-4334-8fa4-724ddd23a9d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya Bahuguna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adityabahuguna200@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/046895d4-6e97-4499-8dc6-1247cf58fc75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prince Singhalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">princesinghalia@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/709bea37-b877-4a87-a092-e0439b4a67f1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhinav Parth Nautiyal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhinav07nautiyal@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/ebb3af7f-e2df-4a5d-881a-93b723b8e40b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kushagra Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jainkushagrawork@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/ceae3264-01a3-422d-add1-a440a35c0960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parth Garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parthgargstudent@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4070f33e-43d1-4155-ad44-5d77647d20cf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harshita Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harshitayadav375@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/12ac3320-b16e-4001-9ec9-4609eb9b7523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavish Goyal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lavishgoyal0209@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/804c3a6b-bde5-41b2-a144-48f0388e7f57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yash Chouksey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ychouksey7@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c08d384d-acee-49ad-a997-9ec99c481f4c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amulya Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alokik.amulyajain@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/08ee5188-1235-45aa-85b2-50f5e2fea545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Dataplex [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aryaman Upadhyay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14aryaman.feb@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/5d483cda-9fc6-44b0-8287-2ede365d8f4c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiya Ajmera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jiyaajmera18@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6f144667-a023-4128-b90f-657b9d4b7ff7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKSH CHAUHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aksh111828@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6fc9317b-1923-427e-83d8-22e3de7a6954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratiush Paliwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pratiushpaliwal.dev@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3280f19f-2dd4-47d9-893c-ea01878bef0a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megha Gehlot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meghagehlot03@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a7c79ebc-2717-4326-a9f6-366f0c882f43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aadi Agarwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aadiagarwal65@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2394fb35-9062-49db-be19-a7a42963fa82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vedansh Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vedanshsinghyadav05@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e135db21-8471-44cc-9c39-fd731e003425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kartikay Chaudhary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">namankartikay94@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/cc79a9ef-5837-4e2f-9c09-55e49912c0eb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soma Rawat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">somarawat2812@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/09dcd77e-b98f-4092-a6cf-88d81e9b6a01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahed khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fahedkhan0379@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2e8bff10-3368-4d61-b9d9-c902613ce2f9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arya vijay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iamaryavj14@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/deb8cdb9-1c74-40f7-912c-709dce5d2bb9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divya Sreenidhi Arigala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arigalads@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/8929b923-d16a-4e5d-ad79-6ed521810b2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udit Verma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">udit.workspace8@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/9eede3e0-1c1a-41a3-b11c-7a050457bfc4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saransh Aswal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aswalsaransh2007@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f6ed4c2f-1aa5-4203-afd9-1561130c4d95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayush Pandey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayush1983pandey@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/477aa24d-f5a5-46c1-af9b-1424e909e6d0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya Shrivastava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aditya.shrivastava.082005@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c5f2e5d7-d7d8-4b65-9983-38618319fb04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devanshi Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devanshijain@ieee.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d035e918-4293-495f-ad02-1f70d46a73b5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anshuman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">razputhere@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/8758b9c3-92d4-4876-ab4e-c071904e6af8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shivang Mangal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shivangmangal@ieee.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/73b7f31d-600b-4a90-b436-6a2b7bf3c3f7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doorva Adhikari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doorvaadhikari@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4dae4508-83cd-4812-97f1-1e44b0cf8ebd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vedika Garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vedikav0@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/776205c0-55ed-440c-a672-28b0536df878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anshuman Agrawal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anshuman980712@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d62710c7-3ba1-442a-99d5-52051e8413de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suhani Soni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suhanisoni98120@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/24660c88-e276-4363-b9cc-1e6c7f4ab5a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jahnavi Saxena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jahnavisaxena2304@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/759adbba-6fed-4604-a4f6-d2d4abae9ec4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saransh Sinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saranshsinha.04@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/fa0387ec-eac7-4900-b835-e236d33c21be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parthib Halder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parthibhalder21@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/5ae745ef-8b97-44f0-8be8-4ed2ec280879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satwik Dash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worksatwikdash@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d2ae66f4-4900-4c83-a1cf-7be606b8149d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayushmaan Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayushmaan0313@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4ff9d2dd-5387-42fa-925e-507c1dd7d428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veenit Kumar Pradhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veenit.pradhan2277@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/884bd6d9-4c9a-4080-9c96-cbe1b3e52c6f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kruthika tummala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kruthikatummala02@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b33e43a7-31fc-45f2-aec5-ec7f659bd7c8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srishti Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srishtig0711@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3ccfc744-72c0-4e46-950c-7152cff45fb1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhiram Bhamidipati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhiram.bhamidipati@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d81ea0d2-4b31-4b2d-933e-9361eccc664b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kattyayni Dwivedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kattyayni.125713@stu.upes.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3647f136-0518-4132-b2bd-80f0d64eaf6b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Prompt Design in Vertex AI [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shashwat Kashyap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shashwatktiwary@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/9d1c5d53-13a2-4c6a-a21d-436be367bebe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaishnavi Srivastava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vaishnavisri504@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/cb67b1c8-1071-48ac-a8fd-67c49c191d40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayush Mehta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayushmehtabps@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b7994eae-639a-446a-b356-c8533ad97a09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aakshat Garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aakshatg@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3b5d005b-8d3b-4c5e-bcfb-728fe947e2d7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akshara Mishra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akshi27mi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/0f0096ce-b186-4643-87b4-aadb16d81ead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikhil Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nothin.main@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3a28ee20-df8a-437c-be8e-6dd1128b9c35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahana Chauhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tanuchauhan2004@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/754bc290-4a94-4fb9-9577-dd35d73f2bc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shivansh Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icecubeses@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/964111dd-c041-4215-94a0-525f7b43d35f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saksham Nigam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sakshamnigam03@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/80d2f7ba-419e-434e-9780-bb6072cd1e44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armaan Arora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arorarmaan321@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/689f59cc-a4ba-435b-a0b5-94866b6726b3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yash Krishan Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yashkrishangupta@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/81772c52-113e-4883-9929-c6719c81a4e6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shubhang Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rustedshader@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b846b1ab-8379-4e00-b52e-e02dd2c362ce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanya chhabra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanyacixa50@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b1590a43-1d1c-4833-aaee-09a84d1d78c0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratham Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prathamjain671@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/13d11cab-07dc-400c-8a29-f56f6a7c3a61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mazerunner793@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d248f35f-a076-453f-8e6c-d1c793fc1f61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnav Srivastava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnav.125208@stu.upes.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/31bc2677-76ba-4fdc-91fd-19d7c0969063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pari jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parijain4141@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f002e499-513a-4951-b3f9-b7ddb3254da3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samyaak Gharat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gharatsamyaak@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/43db8434-82ae-417a-9850-ead8eec86b67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adit Verma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aditunavailable@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/751b2559-8240-4179-bfc8-5d2059c5e2ce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yog Pandey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yogpandey.tgt@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/cc4b7913-ffde-463c-b79b-5f14f6e5e51e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyanka Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priyankasinghx7@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/71c621a8-91d3-49a9-bf63-6306920bc758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lopamudra Upadhyay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upadhyaylopamudra@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/78e41060-a846-4065-9ce9-0732344e3bbf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muskan Chaudhary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdschaudhary47@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2e8e6dca-a4e7-4961-851b-ae535e7b7156</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
-    <t xml:space="preserve">Ruhani Khurana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruhanikhurana0608@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/250fd839-26e6-4b22-b164-da595e3db62c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radhika Mehrotra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">radhika.25153@stu.upes.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/cbdf7876-9381-4d02-8f98-1063c93063c4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deepak Soni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lonstriam@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e0986bcb-06f6-4e4c-bb8b-86c5045a5e7a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atrey Shukla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atrey.16787@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f8f81d2c-579c-49cc-b96f-554dbfb860b2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ankit Malik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malikankit447@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/5c8d61a8-dfe2-413a-bc09-23b9bc2e89d3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garvit Jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">garvitjain2007gj@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/329ea7ad-4f84-43e0-a0d9-70557c22b89d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nihita Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guptanihita@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/9cf419e6-2a1b-4c07-ae3f-76df9b4d0b3f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aastha Negi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aastha26negi@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d44bba8f-270f-4106-9bc0-ed43c3d8bde9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shivansh Srivastava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onlyshivansh2005@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/63a47ed7-b940-4ccb-af2b-1cc324be84c3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parth Bhatt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wlfparth27@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b6ed5a61-16f0-455e-9530-fb80848a50eb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heervita Mistri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heervitamistri6@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e6c75767-675e-478b-9841-b106616023d3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aryan Singh Shaktawat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shaktawat.aryan971@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d8a7509f-ba32-4164-9411-9ec26a016063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rohan Batra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rohanbatraind@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/96716cb8-862b-49d0-9a4b-67376d7241da</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stuti Singh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stutisingh17012005@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e18276a8-2113-49e8-982a-bf0b62ddc30b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pranav Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sharmapranav2245@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/dd3a3b24-b7ff-49fc-bb0d-65dbf8bcc16d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ojaswee Upadhyay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ojaswee2095@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3f576124-cd82-4385-ba10-159c969b65c5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prantik Sanki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prantiksanki1@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/5482b0e1-eb2b-411f-99f1-70491d31db39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhumi Chugh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bhumi.chugh99@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/44b07799-1648-450b-8357-c4283f7c4738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhyudaya Dutt Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abhyudayadutt2007@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3f66ea3d-5ead-4e9d-b820-f6cb3a8c82b8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhavesh Rawat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cookingcapybara@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/549ac441-0e8d-48a7-843f-4a40e2e8d66b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devansh Bindal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devanshbindal16@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a6ccce90-6401-4a8a-b175-9c1af30b1bc4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saksham Bhardwaj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sakshambhardwaj54@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/68063b6f-ea3b-4387-a14f-d8206449416c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soham Pahari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paharisuhan17@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/85716c99-6b59-406a-ac56-1164869aa040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahil narang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snarang445566@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/355616eb-38c2-46d8-a18a-687ba0cca3f9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meghna Dhakad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dhakadmeghna88@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/74e09b04-5ec6-4334-8fa4-724ddd23a9d3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aditya Bahuguna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adityabahuguna200@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/046895d4-6e97-4499-8dc6-1247cf58fc75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prince Singhalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">princesinghalia@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/709bea37-b877-4a87-a092-e0439b4a67f1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhinav Parth Nautiyal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abhinav07nautiyal@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/ebb3af7f-e2df-4a5d-881a-93b723b8e40b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kushagra Jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jainkushagrawork@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/ceae3264-01a3-422d-add1-a440a35c0960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parth Garg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parthgargstudent@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4070f33e-43d1-4155-ad44-5d77647d20cf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harshita Yadav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">harshitayadav375@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/12ac3320-b16e-4001-9ec9-4609eb9b7523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lavish Goyal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lavishgoyal0209@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/804c3a6b-bde5-41b2-a144-48f0388e7f57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yash Chouksey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ychouksey7@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c08d384d-acee-49ad-a997-9ec99c481f4c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amulya Jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alokik.amulyajain@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/08ee5188-1235-45aa-85b2-50f5e2fea545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Dataplex [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aryaman Upadhyay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14aryaman.feb@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/5d483cda-9fc6-44b0-8287-2ede365d8f4c</t>
+    <t xml:space="preserve">Samagra Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gsamagra93@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c8d736ba-a28e-466a-9912-b02e5e3fbadc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhyudaya.25624@stu.upes.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/fd2da2b5-ad20-4a7b-9faf-99197c25e136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nishika Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yadavnishika2007@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/392301ee-007d-45e2-b89f-727801593a57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suryansh thapliyal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thapliyalsuryansh@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6442090b-aef1-41ac-9978-8628ff5b91de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditi Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aditisharma152425@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/061a124b-e9c3-41d2-b161-cd09b5b5f94e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DARSH MAHOBIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">darshmahobia79@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/63425048-ca29-4274-8e1f-5063dd8137af</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srishti jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srishtijain906@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/46c1c253-c918-4f4f-a84a-479e65e17250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ritkriti Goyal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ritkritigoyal@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3beffea1-3eb6-48ee-837f-2ca2203bff07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | App Engine: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYUSH RICHHARIYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayushrichhariya2006oficial@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4a28726d-6c5e-4c36-b5f8-68a2769a8312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arjit Pathak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arjitpathak805@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/dfd92f1c-a7fd-4a6e-b450-a8d13c4057b5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhishek Gaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhishekgaur2705@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f2f0d9c1-ae9c-4481-bda2-bd3dfd05ef7e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anurag Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iamanuragupta19@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/8b40908e-43b0-4d34-a081-733a3235225c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayank Tanishk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mayank.tanishk2006@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a8fa8edc-7c7a-4b7e-add2-f6cd17088efb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rijul Mittal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rishu20061022@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/0445c76b-60cc-40c7-8402-bae4196d1916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishesh gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8295408298v@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/077a2bc5-f3f4-4e44-8e27-ab4663908f71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaryan Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aryanshm100@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/9a3eaf87-d0ea-422e-a95f-2fd170be4cc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Started with Looker [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankit Kumar Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankity6937@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/5a4c4088-b19b-474c-b6f9-d18128360b08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rachit Madhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">madharrachit@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d12f3658-71e0-4450-b1d0-3b3e0fec7526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohit Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rohit.yadav18j@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2da0aee1-b473-4913-bbba-acbe8d36422b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tusharika seth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tusharikaseth.2020@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c1298f1f-5414-4b37-b5fb-2f3adcb16052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avani Garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avanigarg2007@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d5b79f63-9b01-4611-9b67-d583f0a778a4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sneha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sneha.25182@stu.upes.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/dbf223c6-2a0e-4014-b0a6-6df5ddad6fac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoorv Bansal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apoorvg685@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/dbd7abc9-3d38-4ef8-bfb4-7265622cb306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnav Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ronypankaj30@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f8cd44d5-253c-4061-b6bb-52ca42213282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanshraj singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanshraj.cloudskillboost@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/0d09dede-3308-4250-8e43-9be9fddd84fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saumya Bhalothia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saumyabhalothia1719@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/68a19d38-421b-4e9e-a461-9a9fffb104c3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vansh Bhasin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vansh.122768@stu.upes.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e7fd31ad-2f56-4323-bb37-d97fcc88866d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aryan Sejwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aryansejwal2020@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d0c2d829-6b0c-4337-9876-72f059090d95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Started with Pub/Sub [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratik Kaushal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaushalpratik1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/da5c1f3b-a54c-414d-9f84-438b7b4123a6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanshika Rawat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one.shika16@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/1ae7424d-27cd-444f-80cd-cd57692db00c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arya Sahu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aryasahu1606@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/085428d4-108a-4396-8f81-b95aa9567095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paras Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parasjain181006@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f5752748-ef55-4722-aa4c-0cba1020acb0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hritvik Garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hritvik2105garg@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/0d7a8380-e484-4c22-9c3c-2f768765587a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amarpreet Kaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amritkirat96@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/96c2df31-94ad-4d72-854d-20fd182cdc79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shourya singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shourya1713@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a23a304c-b179-4424-9560-8c1d03eb6e35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnav Garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arnavgargdps@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/72ccb3f9-8353-4934-9d50-df3c99dc6709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anchit saxena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anchitsaxena2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/75609fa2-668c-4055-924f-2184a6c4491f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nivedan Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nivedansingh335@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6c7f1563-18df-4003-bc31-d03b0a82eb76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Looker [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parth Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001.parth.dev@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/738b6fec-0efb-47ae-b7b8-4cb0e498be40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dev arora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devsrgs05@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b0f713c1-8e4f-4aad-bbb8-68213e73c8a9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhishek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhishek.keyt@proton.me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/75fe0331-ed99-4616-8e93-abbc07a8bb87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raghav Pandey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raghavpandey127546@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/08f30db2-4ff8-47d8-bc48-23d33ad0cac8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhijeet Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhijeetjain3030@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/1f4578f3-8180-4119-8322-2e949d8cf6b0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAHUL SINGH BHANDARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rahulbhandari1250@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/988f209a-f937-4ecd-8f0b-ed7368fa19cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikita Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nikitasharma21360@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c33b172a-897e-4626-8f0f-ac3ab79172fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kushagra Ranjan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kushagraranjankr@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e2da73d5-d9cb-4b67-b002-dd382f32fe6d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khushi Mehrotra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khushimehrotra2401@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a429bd6c-11e4-4983-87e4-123ec4510468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhijeet Deshwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mailtoabhijeetdeshwal@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4691182f-0255-4b86-97bf-f948cfd857c2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kavya Garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gargkavya931@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a8514341-c24b-431c-ba43-1e4783b4474a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pranjal Goyal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">broskiduniya24@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/de841304-d62a-4ac1-95f6-e21811417f2c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumit kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sumitkumar94038@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/ce9e4d08-f683-48c2-9844-18d1bca2d86f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vashu Kulashri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ckcegg2006@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/043c324a-92c1-4e9d-8cbc-ec263563f776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anishka singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anishkasinghclass9@gamil.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6709e7ab-cd86-4a4a-af65-cf1282d0a078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaijanti Aswal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vaijantiaswal8@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/fbbcf800-2f30-4543-89ec-772140adbc6a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naman Dixit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naman.125539@stu.upes.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4497dd51-982e-468a-be82-fff32f297777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanak Shree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kanakshree2005@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6ee269f1-e635-4d36-8fa6-59bf7d291c8b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misthi Bansal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">misthiibansal4@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6aa237c8-acc1-4ded-a359-3492175690ed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Prompt Design in Vertex AI [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanshika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanshikakhatri21@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/365f9ec4-5bab-492b-ba13-7b9247692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parth Joshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frostgameing0@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/cab76aa6-adf2-44e1-82b9-a69c2210c080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anushka tomar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomaranushka949@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3103f4b7-680d-4763-ac81-41709c0bd1ce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raghvendra Goyal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raghvendragoyal18@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/fe3833f8-f65f-4ef2-93a1-cd551044a0bd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Prompt Design in Vertex AI [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhinav apurv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhinavapoorva2007@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4d8756cd-d5fa-416e-9de6-2d91e5713cd4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipesh Mittal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dipeshmittal71006@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c680ce3e-f4a9-4d69-b493-5cdd76e0e744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omansh Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdg.arcade.omansh.1296@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/8749c325-3c8f-49dd-97aa-9897422e0315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shreya Mahara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missshreyamahara@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/1efa3ae7-297c-4ea1-8f78-e99281f22e91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daksh Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daksh.sharma7817@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/64c34fbe-e7d8-4d55-8e0c-02f41ad49a8e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nistha Kachhwaha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nisthakachhwaha15@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/ad4f18a6-5985-4589-865b-86ffef5a1a64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shreya Pandey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sshhrreeyyaapp@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f9276529-4b36-4daf-aedb-aa3c117064a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K Arya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mearya083@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6005fbdc-d436-48d3-b3af-4909de202acf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kartik Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kartikguptaa0@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/43f39bc9-ee83-4794-a047-c75dc2e35ebb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vansh saini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanshsa1234@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/76c65d62-f2df-4cea-a567-800ec411aa22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohit Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guptaradha1981@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/806b82a0-feb9-4ff3-922a-505c57bb8d65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vansh Wadhwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vansh5846g@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/730c8e42-a4ed-4017-bf93-e9488a8f6a5f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AADITYA RAJ DIXIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaditya.dixit004@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/97dfec47-5602-4b77-8a56-23968699d828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vipransh Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vipransh0228@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/7b77fee4-5b85-4d1a-832d-e409cea1f6e5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhineet Tandon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhineet.tandon07@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6ac71390-115f-44d0-81ee-aab657acfd6f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shivya arora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shivya2005@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2fa70965-e87d-40ac-87fa-4833a20c03b1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akshat Dwivedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akshat.26799@stu.upes.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d22fcd7f-9c9b-4b52-9a4d-267fbef12273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harshit garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harshitgarg3008@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/9e5ffebc-8d0a-426c-aa5c-d2bfcf50e047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yashvi Manojkumar Patel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y8shvi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c654845d-8212-4f97-b115-7d70e1714546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niharika bhatt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">niharikaabhatt21@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e49f1ac1-980c-465a-a6a8-d0a5d954e1a9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drishti Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drishtig1176@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/31399d7b-b3c2-409f-b8c8-239903a9b269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parth Pandey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parthpandey1947@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/240dfabd-b235-474b-aed2-c646c9984aaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anu Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anuyadav9595@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b0316f65-7f0d-442f-ab5a-209ce2656613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taraksh Goyal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taraksh9a33@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2b0b65d0-5a81-421c-803a-01093ee3e753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krishna Gera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">krishnageraofficial@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d9611b7e-6496-4f62-a846-e75db7e767cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raghav gaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raghavgaur.k.s@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d534fa2b-51b9-4454-b100-fe80d793d249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayush kumar singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singhxayush100@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/87ad7d62-9a8c-407b-b1cb-8de752832455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krishika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">krishika1400@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/33c8ef3f-4f19-4765-9bf0-79c60534ff05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakshya Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lakshya.gupta2006l@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e329aa96-f62f-45f4-b1be-4a4bcf8d6f27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhavyansh Tyagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tyagibhavyansh123@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3660fec4-f40e-491a-bc6b-8d264365c709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siddharth Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guptasiddharth1712@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/26cffbdc-f6f0-4acc-969f-844a606fb65d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anshika Saxena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anshikasaxena1952@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/80cd8b1e-a934-4e7e-aa90-c6a31116c5c8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhinav Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhinav.7vy@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d6d99559-43ba-4cb8-8f70-58a069bb0aa9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aadvit more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aadvitmore@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d63bfcda-e924-448f-868b-b74e6890cd8a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devansh purohit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devanshpurohit1710@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6e8544ed-c1d9-43dd-b3f2-4fda66865f70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swastik sachdeva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sachdeva.swastik18728@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/ca04729b-a587-487f-abf4-799565c6f7f9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aryan dhiman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aryanyt3552@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2c85a701-d4fb-4a36-8b78-630c6748f950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shreyansh awasthi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sawasthi1703@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/ba1fdecc-99dd-48de-a959-2a86c3387eaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manas Maheshwari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manas17146@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/bc8893ca-a500-423c-acb6-3f6460225dfb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vedanjali sahi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sahiaarti5@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/1c047fbb-d6a4-4341-9256-98718e56b040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atharva Ingale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atharvaingale2007@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e2fe6e80-3023-4470-b364-8c6a604fd435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kashish Choudhary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kashishchoudhary3359@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/53088aa9-412e-4e41-9f4f-7a036487d535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnav thapliyal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arnavthapliyal@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f9c29d4a-9c0c-4680-8410-2f1d4ef01816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yashvardhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yashvardhan.18904@stu.upes.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/187b40fe-bbf3-4f05-a5a1-918e0e26c12a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pranav r nair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nairp126@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/dbaa009a-edd6-4568-8e79-a64ad1d5a1c9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krishnanshu Varshney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">krishnanshu16@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/605dc8e9-effc-468a-b388-ac7324639a92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jasika garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jasika.26593@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6e5a79dc-50de-4dea-b715-b7c440977b2b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaditya Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jainaaditya230407@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c2cc5d23-8293-4d2b-9edf-3ec771a60f12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divyanshi Bhatt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divyanshib2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/1f80d77a-058a-4784-8b3c-5e7220738131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subhasmita swain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khushiswain712@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/8725950c-80ec-4961-8d40-d29779eca8d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hansika Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hansikag22@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/7993bc53-4060-4a7b-9fd4-153138d65b89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavisha Chauhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chauhanlavisha30@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b8eda4af-50d9-431d-8427-aa1e3cdd33bb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brishav Debnath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brishavdevnath@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/ab121d43-a164-4b92-8748-57c10090c552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya gaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adityagaur261@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3b14c9d5-5ead-42bc-963f-0798512ff263</t>
   </si>
   <si>
     <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Pub/Sub [Skill Badge]</t>
   </si>
   <si>
-    <t xml:space="preserve">Jiya Ajmera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jiyaajmera18@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6f144667-a023-4128-b90f-657b9d4b7ff7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKSH CHAUHAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aksh111828@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6fc9317b-1923-427e-83d8-22e3de7a6954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pratiush Paliwal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pratiushpaliwal.dev@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3280f19f-2dd4-47d9-893c-ea01878bef0a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megha Gehlot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meghagehlot03@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a7c79ebc-2717-4326-a9f6-366f0c882f43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aadi Agarwal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aadiagarwal65@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2394fb35-9062-49db-be19-a7a42963fa82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Started with Pub/Sub [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vedansh Singh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vedanshsinghyadav05@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e135db21-8471-44cc-9c39-fd731e003425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kartikay Chaudhary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">namankartikay94@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/cc79a9ef-5837-4e2f-9c09-55e49912c0eb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soma Rawat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">somarawat2812@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/09dcd77e-b98f-4092-a6cf-88d81e9b6a01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahed khan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fahedkhan0379@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2e8bff10-3368-4d61-b9d9-c902613ce2f9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arya vijay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iamaryavj14@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/deb8cdb9-1c74-40f7-912c-709dce5d2bb9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divya Sreenidhi Arigala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arigalads@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/8929b923-d16a-4e5d-ad79-6ed521810b2d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Udit Verma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">udit.workspace8@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/9eede3e0-1c1a-41a3-b11c-7a050457bfc4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saransh Aswal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aswalsaransh2007@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f6ed4c2f-1aa5-4203-afd9-1561130c4d95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayush Pandey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ayush1983pandey@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/477aa24d-f5a5-46c1-af9b-1424e909e6d0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aditya Shrivastava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aditya.shrivastava.082005@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c5f2e5d7-d7d8-4b65-9983-38618319fb04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devanshi Jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devanshijain@ieee.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d035e918-4293-495f-ad02-1f70d46a73b5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Prompt Design in Vertex AI [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anshuman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">razputhere@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/8758b9c3-92d4-4876-ab4e-c071904e6af8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shivang Mangal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shivangmangal@ieee.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/73b7f31d-600b-4a90-b436-6a2b7bf3c3f7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doorva Adhikari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doorvaadhikari@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4dae4508-83cd-4812-97f1-1e44b0cf8ebd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vedika Garg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vedikav0@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/776205c0-55ed-440c-a672-28b0536df878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anshuman Agrawal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anshuman980712@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d62710c7-3ba1-442a-99d5-52051e8413de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suhani Soni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suhanisoni98120@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/24660c88-e276-4363-b9cc-1e6c7f4ab5a2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jahnavi Saxena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jahnavisaxena2304@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/759adbba-6fed-4604-a4f6-d2d4abae9ec4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saransh Sinha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saranshsinha.04@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/fa0387ec-eac7-4900-b835-e236d33c21be</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parthib Halder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parthibhalder21@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/5ae745ef-8b97-44f0-8be8-4ed2ec280879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satwik Dash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worksatwikdash@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d2ae66f4-4900-4c83-a1cf-7be606b8149d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayushmaan Singh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ayushmaan0313@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4ff9d2dd-5387-42fa-925e-507c1dd7d428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veenit Kumar Pradhan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">veenit.pradhan2277@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/884bd6d9-4c9a-4080-9c96-cbe1b3e52c6f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kruthika tummala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kruthikatummala02@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b33e43a7-31fc-45f2-aec5-ec7f659bd7c8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srishti Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">srishtig0711@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3ccfc744-72c0-4e46-950c-7152cff45fb1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhiram Bhamidipati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abhiram.bhamidipati@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d81ea0d2-4b31-4b2d-933e-9361eccc664b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kattyayni Dwivedi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kattyayni.125713@stu.upes.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3647f136-0518-4132-b2bd-80f0d64eaf6b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shashwat Kashyap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shashwatktiwary@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/9d1c5d53-13a2-4c6a-a21d-436be367bebe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaishnavi Srivastava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vaishnavisri504@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/cb67b1c8-1071-48ac-a8fd-67c49c191d40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayush Mehta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ayushmehtabps@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b7994eae-639a-446a-b356-c8533ad97a09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aakshat Garg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aakshatg@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3b5d005b-8d3b-4c5e-bcfb-728fe947e2d7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Dataplex [Skill Badge] | App Building with AppSheet [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akshara Mishra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">akshi27mi@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/0f0096ce-b186-4643-87b4-aadb16d81ead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nikhil Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nothin.main@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3a28ee20-df8a-437c-be8e-6dd1128b9c35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahana Chauhan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tanuchauhan2004@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/754bc290-4a94-4fb9-9577-dd35d73f2bc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shivansh Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icecubeses@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/964111dd-c041-4215-94a0-525f7b43d35f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saksham Nigam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sakshamnigam03@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/80d2f7ba-419e-434e-9780-bb6072cd1e44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armaan Arora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arorarmaan321@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/689f59cc-a4ba-435b-a0b5-94866b6726b3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yash Krishan Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yashkrishangupta@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/81772c52-113e-4883-9929-c6719c81a4e6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shubhang Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rustedshader@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b846b1ab-8379-4e00-b52e-e02dd2c362ce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Dataplex [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanya chhabra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanyacixa50@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b1590a43-1d1c-4833-aaee-09a84d1d78c0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pratham Jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prathamjain671@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/13d11cab-07dc-400c-8a29-f56f6a7c3a61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mazerunner793@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d248f35f-a076-453f-8e6c-d1c793fc1f61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arnav Srivastava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arnav.125208@stu.upes.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/31bc2677-76ba-4fdc-91fd-19d7c0969063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pari jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parijain4141@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f002e499-513a-4951-b3f9-b7ddb3254da3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samyaak Gharat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gharatsamyaak@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/43db8434-82ae-417a-9850-ead8eec86b67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adit Verma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aditunavailable@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/751b2559-8240-4179-bfc8-5d2059c5e2ce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yog Pandey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yogpandey.tgt@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/cc4b7913-ffde-463c-b79b-5f14f6e5e51e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priyanka Singh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priyankasinghx7@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/71c621a8-91d3-49a9-bf63-6306920bc758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lopamudra Upadhyay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upadhyaylopamudra@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/78e41060-a846-4065-9ce9-0732344e3bbf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muskan Chaudhary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdschaudhary47@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2e8e6dca-a4e7-4961-851b-ae535e7b7156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samagra Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gsamagra93@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c8d736ba-a28e-466a-9912-b02e5e3fbadc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abhyudaya.25624@stu.upes.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/fd2da2b5-ad20-4a7b-9faf-99197c25e136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nishika Yadav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yadavnishika2007@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/392301ee-007d-45e2-b89f-727801593a57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suryansh thapliyal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thapliyalsuryansh@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6442090b-aef1-41ac-9978-8628ff5b91de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aditi Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aditisharma152425@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/061a124b-e9c3-41d2-b161-cd09b5b5f94e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DARSH MAHOBIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">darshmahobia79@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/63425048-ca29-4274-8e1f-5063dd8137af</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srishti jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">srishtijain906@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/46c1c253-c918-4f4f-a84a-479e65e17250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritkriti Goyal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ritkritigoyal@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3beffea1-3eb6-48ee-837f-2ca2203bff07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AYUSH RICHHARIYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ayushrichhariya2006oficial@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4a28726d-6c5e-4c36-b5f8-68a2769a8312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arjit Pathak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arjitpathak805@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/dfd92f1c-a7fd-4a6e-b450-a8d13c4057b5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhishek Gaur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abhishekgaur2705@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f2f0d9c1-ae9c-4481-bda2-bd3dfd05ef7e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anurag Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iamanuragupta19@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/8b40908e-43b0-4d34-a081-733a3235225c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayank Tanishk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mayank.tanishk2006@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a8fa8edc-7c7a-4b7e-add2-f6cd17088efb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rijul Mittal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rishu20061022@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/0445c76b-60cc-40c7-8402-bae4196d1916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vishesh gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8295408298v@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/077a2bc5-f3f4-4e44-8e27-ab4663908f71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aaryan Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aryanshm100@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/9a3eaf87-d0ea-422e-a95f-2fd170be4cc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ankit Kumar Yadav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ankity6937@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/5a4c4088-b19b-474c-b6f9-d18128360b08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rachit Madhar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madharrachit@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d12f3658-71e0-4450-b1d0-3b3e0fec7526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rohit Yadav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rohit.yadav18j@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2da0aee1-b473-4913-bbba-acbe8d36422b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tusharika seth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tusharikaseth.2020@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c1298f1f-5414-4b37-b5fb-2f3adcb16052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avani Garg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avanigarg2007@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d5b79f63-9b01-4611-9b67-d583f0a778a4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sneha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sneha.25182@stu.upes.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/dbf223c6-2a0e-4014-b0a6-6df5ddad6fac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apoorv Bansal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apoorvg685@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/dbd7abc9-3d38-4ef8-bfb4-7265622cb306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arnav Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ronypankaj30@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f8cd44d5-253c-4061-b6bb-52ca42213282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vanshraj singh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vanshraj.cloudskillboost@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/0d09dede-3308-4250-8e43-9be9fddd84fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saumya Bhalothia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saumyabhalothia1719@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/68a19d38-421b-4e9e-a461-9a9fffb104c3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vansh Bhasin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vansh.122768@stu.upes.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e7fd31ad-2f56-4323-bb37-d97fcc88866d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aryan Sejwal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aryansejwal2020@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d0c2d829-6b0c-4337-9876-72f059090d95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pratik Kaushal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kaushalpratik1@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/da5c1f3b-a54c-414d-9f84-438b7b4123a6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanshika Rawat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">one.shika16@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/1ae7424d-27cd-444f-80cd-cd57692db00c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arya Sahu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aryasahu1606@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/085428d4-108a-4396-8f81-b95aa9567095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paras Jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parasjain181006@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f5752748-ef55-4722-aa4c-0cba1020acb0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hritvik Garg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hritvik2105garg@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/0d7a8380-e484-4c22-9c3c-2f768765587a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amarpreet Kaur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amritkirat96@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/96c2df31-94ad-4d72-854d-20fd182cdc79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shourya singh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shourya1713@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a23a304c-b179-4424-9560-8c1d03eb6e35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arnav Garg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arnavgargdps@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/72ccb3f9-8353-4934-9d50-df3c99dc6709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anchit saxena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anchitsaxena2@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/75609fa2-668c-4055-924f-2184a6c4491f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nivedan Singh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nivedansingh335@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6c7f1563-18df-4003-bc31-d03b0a82eb76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parth Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001.parth.dev@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/738b6fec-0efb-47ae-b7b8-4cb0e498be40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dev arora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devsrgs05@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b0f713c1-8e4f-4aad-bbb8-68213e73c8a9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhishek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abhishek.keyt@proton.me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/75fe0331-ed99-4616-8e93-abbc07a8bb87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raghav Pandey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raghavpandey127546@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/08f30db2-4ff8-47d8-bc48-23d33ad0cac8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhijeet Jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abhijeetjain3030@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/1f4578f3-8180-4119-8322-2e949d8cf6b0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAHUL SINGH BHANDARI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rahulbhandari1250@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/988f209a-f937-4ecd-8f0b-ed7368fa19cd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nikita Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nikitasharma21360@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c33b172a-897e-4626-8f0f-ac3ab79172fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kushagra Ranjan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kushagraranjankr@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e2da73d5-d9cb-4b67-b002-dd382f32fe6d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khushi Mehrotra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">khushimehrotra2401@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a429bd6c-11e4-4983-87e4-123ec4510468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhijeet Deshwal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mailtoabhijeetdeshwal@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4691182f-0255-4b86-97bf-f948cfd857c2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kavya Garg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gargkavya931@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a8514341-c24b-431c-ba43-1e4783b4474a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pranjal Goyal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">broskiduniya24@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/de841304-d62a-4ac1-95f6-e21811417f2c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sumit kumar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sumitkumar94038@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/ce9e4d08-f683-48c2-9844-18d1bca2d86f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vashu Kulashri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ckcegg2006@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/043c324a-92c1-4e9d-8cbc-ec263563f776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anishka singh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anishkasinghclass9@gamil.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6709e7ab-cd86-4a4a-af65-cf1282d0a078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaijanti Aswal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vaijantiaswal8@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/fbbcf800-2f30-4543-89ec-772140adbc6a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naman Dixit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naman.125539@stu.upes.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4497dd51-982e-468a-be82-fff32f297777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanak Shree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kanakshree2005@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6ee269f1-e635-4d36-8fa6-59bf7d291c8b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misthi Bansal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">misthiibansal4@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6aa237c8-acc1-4ded-a359-3492175690ed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanshika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vanshikakhatri21@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/365f9ec4-5bab-492b-ba13-7b9247692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parth Joshi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frostgameing0@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/cab76aa6-adf2-44e1-82b9-a69c2210c080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anushka tomar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tomaranushka949@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3103f4b7-680d-4763-ac81-41709c0bd1ce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raghvendra Goyal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raghvendragoyal18@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/fe3833f8-f65f-4ef2-93a1-cd551044a0bd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhinav apurv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abhinavapoorva2007@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4d8756cd-d5fa-416e-9de6-2d91e5713cd4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dipesh Mittal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dipeshmittal71006@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c680ce3e-f4a9-4d69-b493-5cdd76e0e744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omansh Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gdg.arcade.omansh.1296@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/8749c325-3c8f-49dd-97aa-9897422e0315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shreya Mahara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">missshreyamahara@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/1efa3ae7-297c-4ea1-8f78-e99281f22e91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daksh Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daksh.sharma7817@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/64c34fbe-e7d8-4d55-8e0c-02f41ad49a8e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nistha Kachhwaha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nisthakachhwaha15@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/ad4f18a6-5985-4589-865b-86ffef5a1a64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shreya Pandey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sshhrreeyyaapp@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f9276529-4b36-4daf-aedb-aa3c117064a2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K Arya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mearya083@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6005fbdc-d436-48d3-b3af-4909de202acf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kartik Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kartikguptaa0@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/43f39bc9-ee83-4794-a047-c75dc2e35ebb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vansh saini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vanshsa1234@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/76c65d62-f2df-4cea-a567-800ec411aa22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rohit Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guptaradha1981@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/806b82a0-feb9-4ff3-922a-505c57bb8d65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vansh Wadhwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vansh5846g@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/730c8e42-a4ed-4017-bf93-e9488a8f6a5f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AADITYA RAJ DIXIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaditya.dixit004@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/97dfec47-5602-4b77-8a56-23968699d828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vipransh Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vipransh0228@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/7b77fee4-5b85-4d1a-832d-e409cea1f6e5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhineet Tandon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abhineet.tandon07@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6ac71390-115f-44d0-81ee-aab657acfd6f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shivya arora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shivya2005@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2fa70965-e87d-40ac-87fa-4833a20c03b1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akshat Dwivedi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">akshat.26799@stu.upes.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d22fcd7f-9c9b-4b52-9a4d-267fbef12273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harshit garg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">harshitgarg3008@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/9e5ffebc-8d0a-426c-aa5c-d2bfcf50e047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yashvi Manojkumar Patel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y8shvi@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c654845d-8212-4f97-b115-7d70e1714546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niharika bhatt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niharikaabhatt21@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e49f1ac1-980c-465a-a6a8-d0a5d954e1a9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drishti Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drishtig1176@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/31399d7b-b3c2-409f-b8c8-239903a9b269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parth Pandey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parthpandey1947@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/240dfabd-b235-474b-aed2-c646c9984aaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anu Yadav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anuyadav9595@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b0316f65-7f0d-442f-ab5a-209ce2656613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taraksh Goyal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taraksh9a33@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2b0b65d0-5a81-421c-803a-01093ee3e753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krishna Gera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">krishnageraofficial@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d9611b7e-6496-4f62-a846-e75db7e767cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raghav gaur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raghavgaur.k.s@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d534fa2b-51b9-4454-b100-fe80d793d249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayush kumar singh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singhxayush100@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/87ad7d62-9a8c-407b-b1cb-8de752832455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krishika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">krishika1400@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/33c8ef3f-4f19-4765-9bf0-79c60534ff05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lakshya Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lakshya.gupta2006l@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e329aa96-f62f-45f4-b1be-4a4bcf8d6f27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhavyansh Tyagi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tyagibhavyansh123@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3660fec4-f40e-491a-bc6b-8d264365c709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siddharth Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guptasiddharth1712@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/26cffbdc-f6f0-4acc-969f-844a606fb65d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anshika Saxena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anshikasaxena1952@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/80cd8b1e-a934-4e7e-aa90-c6a31116c5c8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhinav Yadav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abhinav.7vy@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d6d99559-43ba-4cb8-8f70-58a069bb0aa9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aadvit more</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aadvitmore@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d63bfcda-e924-448f-868b-b74e6890cd8a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devansh purohit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devanshpurohit1710@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6e8544ed-c1d9-43dd-b3f2-4fda66865f70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swastik sachdeva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sachdeva.swastik18728@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/ca04729b-a587-487f-abf4-799565c6f7f9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aryan dhiman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aryanyt3552@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2c85a701-d4fb-4a36-8b78-630c6748f950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shreyansh awasthi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sawasthi1703@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/ba1fdecc-99dd-48de-a959-2a86c3387eaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manas Maheshwari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manas17146@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/bc8893ca-a500-423c-acb6-3f6460225dfb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vedanjali sahi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sahiaarti5@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/1c047fbb-d6a4-4341-9256-98718e56b040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atharva Ingale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atharvaingale2007@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e2fe6e80-3023-4470-b364-8c6a604fd435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kashish Choudhary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kashishchoudhary3359@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/53088aa9-412e-4e41-9f4f-7a036487d535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arnav thapliyal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arnavthapliyal@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f9c29d4a-9c0c-4680-8410-2f1d4ef01816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yashvardhan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yashvardhan.18904@stu.upes.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/187b40fe-bbf3-4f05-a5a1-918e0e26c12a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pranav r nair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nairp126@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/dbaa009a-edd6-4568-8e79-a64ad1d5a1c9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krishnanshu Varshney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">krishnanshu16@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/605dc8e9-effc-468a-b388-ac7324639a92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jasika garg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jasika.26593@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6e5a79dc-50de-4dea-b715-b7c440977b2b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aaditya Jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jainaaditya230407@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c2cc5d23-8293-4d2b-9edf-3ec771a60f12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divyanshi Bhatt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divyanshib2@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/1f80d77a-058a-4784-8b3c-5e7220738131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subhasmita swain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">khushiswain712@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/8725950c-80ec-4961-8d40-d29779eca8d3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hansika Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hansikag22@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/7993bc53-4060-4a7b-9fd4-153138d65b89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lavisha Chauhan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chauhanlavisha30@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b8eda4af-50d9-431d-8427-aa1e3cdd33bb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Dataplex [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brishav Debnath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brishavdevnath@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/ab121d43-a164-4b92-8748-57c10090c552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aditya gaur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adityagaur261@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3b14c9d5-5ead-42bc-963f-0798512ff263</t>
-  </si>
-  <si>
     <t xml:space="preserve">Venya Mehrotra</t>
   </si>
   <si>
@@ -2032,7 +2053,7 @@
     <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/20aa03f2-092a-4843-8733-f6158233599c</t>
   </si>
   <si>
-    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge]</t>
+    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
   </si>
   <si>
     <t xml:space="preserve">Vidit Gupta</t>
@@ -2044,9 +2065,6 @@
     <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/96f6eeed-fd33-479c-9cd2-0ea13ec3bc80</t>
   </si>
   <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rashi</t>
   </si>
   <si>
@@ -2161,9 +2179,6 @@
     <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/386bb915-11ef-4499-a4ee-19c05d015f81</t>
   </si>
   <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kaustubh Poondir</t>
   </si>
   <si>
@@ -2180,6 +2195,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/265856d1-a4d6-4145-ad39-d232250fb0ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
   </si>
 </sst>
 </file>
@@ -2498,7 +2516,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>21</v>
@@ -2556,27 +2574,30 @@
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -2602,28 +2623,28 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>0</v>
@@ -2631,14 +2652,14 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2646,7 +2667,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>19</v>
@@ -2655,19 +2676,22 @@
         <v>15</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2675,27 +2699,30 @@
         <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -2721,14 +2748,14 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2739,10 +2766,10 @@
         <v>20</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>0</v>
@@ -2750,14 +2777,14 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
@@ -2768,10 +2795,10 @@
         <v>20</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>0</v>
@@ -2779,14 +2806,14 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
@@ -2797,10 +2824,10 @@
         <v>20</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>0</v>
@@ -2808,13 +2835,13 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -2826,10 +2853,10 @@
         <v>20</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>0</v>
@@ -2837,13 +2864,13 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -2863,13 +2890,13 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -2881,7 +2908,10 @@
         <v>20</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>0</v>
@@ -2889,13 +2919,13 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -2910,7 +2940,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>0</v>
@@ -2918,28 +2948,28 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>0</v>
@@ -2947,28 +2977,28 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>0</v>
@@ -2976,13 +3006,13 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -2994,10 +3024,10 @@
         <v>20</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I20" s="1" t="n">
         <v>0</v>
@@ -3005,13 +3035,13 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -3031,28 +3061,28 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="I22" s="1" t="n">
         <v>0</v>
@@ -3060,13 +3090,13 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -3081,7 +3111,7 @@
         <v>9</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>0</v>
@@ -3089,13 +3119,13 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -3121,14 +3151,14 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
       </c>
@@ -3139,10 +3169,10 @@
         <v>20</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>0</v>
@@ -3150,13 +3180,13 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>13</v>
@@ -3176,13 +3206,13 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -3194,10 +3224,10 @@
         <v>20</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>0</v>
@@ -3205,13 +3235,13 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -3220,7 +3250,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>19</v>
@@ -3229,33 +3259,36 @@
         <v>15</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="I29" s="1" t="n">
         <v>0</v>
@@ -3263,13 +3296,13 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -3289,14 +3322,14 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
       </c>
@@ -3307,10 +3340,10 @@
         <v>20</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="I31" s="1" t="n">
         <v>0</v>
@@ -3318,13 +3351,13 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
@@ -3336,10 +3369,10 @@
         <v>20</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="I32" s="1" t="n">
         <v>0</v>
@@ -3347,13 +3380,13 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
@@ -3373,13 +3406,13 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -3399,13 +3432,13 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
@@ -3431,13 +3464,13 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
@@ -3449,10 +3482,10 @@
         <v>20</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="I36" s="1" t="n">
         <v>0</v>
@@ -3460,13 +3493,13 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>13</v>
@@ -3481,7 +3514,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I37" s="1" t="n">
         <v>0</v>
@@ -3489,13 +3522,13 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -3507,10 +3540,10 @@
         <v>20</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I38" s="1" t="n">
         <v>0</v>
@@ -3518,13 +3551,13 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
@@ -3539,7 +3572,7 @@
         <v>2</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I39" s="1" t="n">
         <v>0</v>
@@ -3547,13 +3580,13 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
@@ -3562,7 +3595,7 @@
         <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>19</v>
@@ -3571,18 +3604,21 @@
         <v>15</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -3594,10 +3630,10 @@
         <v>20</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="I41" s="1" t="n">
         <v>0</v>
@@ -3605,13 +3641,13 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -3631,13 +3667,13 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -3649,10 +3685,10 @@
         <v>20</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I43" s="1" t="n">
         <v>0</v>
@@ -3660,13 +3696,13 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -3678,10 +3714,10 @@
         <v>20</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="I44" s="1" t="n">
         <v>0</v>
@@ -3689,13 +3725,13 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -3707,7 +3743,10 @@
         <v>20</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>0</v>
@@ -3715,13 +3754,13 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -3741,13 +3780,13 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -3767,19 +3806,19 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>20</v>
@@ -3793,13 +3832,13 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
@@ -3819,13 +3858,13 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -3845,13 +3884,13 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -3863,7 +3902,10 @@
         <v>20</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I51" s="1" t="n">
         <v>0</v>
@@ -3871,13 +3913,13 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
@@ -3903,13 +3945,13 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -3929,13 +3971,13 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -3947,10 +3989,10 @@
         <v>14</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="I54" s="1" t="n">
         <v>1</v>
@@ -3961,13 +4003,13 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
@@ -3987,13 +4029,13 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>13</v>
@@ -4005,7 +4047,10 @@
         <v>20</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="I56" s="1" t="n">
         <v>0</v>
@@ -4013,13 +4058,13 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -4034,7 +4079,7 @@
         <v>3</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I57" s="1" t="n">
         <v>0</v>
@@ -4042,25 +4087,28 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="I58" s="1" t="n">
         <v>0</v>
@@ -4068,13 +4116,13 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -4086,10 +4134,10 @@
         <v>20</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="I59" s="1" t="n">
         <v>0</v>
@@ -4097,13 +4145,13 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>13</v>
@@ -4123,13 +4171,13 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>13</v>
@@ -4149,13 +4197,13 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
@@ -4175,13 +4223,13 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -4207,13 +4255,13 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>13</v>
@@ -4225,10 +4273,10 @@
         <v>20</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="I64" s="1" t="n">
         <v>0</v>
@@ -4236,28 +4284,28 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="I65" s="1" t="n">
         <v>0</v>
@@ -4265,13 +4313,13 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>13</v>
@@ -4283,7 +4331,10 @@
         <v>20</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I66" s="1" t="n">
         <v>0</v>
@@ -4291,13 +4342,13 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>13</v>
@@ -4317,13 +4368,13 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -4335,10 +4386,10 @@
         <v>20</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c r="I68" s="1" t="n">
         <v>0</v>
@@ -4346,13 +4397,13 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>13</v>
@@ -4367,7 +4418,7 @@
         <v>4</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I69" s="1" t="n">
         <v>0</v>
@@ -4375,13 +4426,13 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>13</v>
@@ -4393,10 +4444,10 @@
         <v>20</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I70" s="1" t="n">
         <v>0</v>
@@ -4404,19 +4455,19 @@
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>20</v>
@@ -4430,13 +4481,13 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>13</v>
@@ -4456,19 +4507,19 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>20</v>
@@ -4482,13 +4533,13 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
@@ -4500,10 +4551,10 @@
         <v>20</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>256</v>
+        <v>146</v>
       </c>
       <c r="I74" s="1" t="n">
         <v>0</v>
@@ -4511,13 +4562,13 @@
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -4526,27 +4577,30 @@
         <v>14</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G75" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I75" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
@@ -4555,27 +4609,30 @@
         <v>14</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>13</v>
@@ -4595,25 +4652,28 @@
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I78" s="1" t="n">
         <v>0</v>
@@ -4621,13 +4681,13 @@
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -4647,13 +4707,13 @@
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>13</v>
@@ -4665,10 +4725,10 @@
         <v>20</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="I80" s="1" t="n">
         <v>0</v>
@@ -4676,13 +4736,13 @@
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -4694,10 +4754,10 @@
         <v>20</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="I81" s="1" t="n">
         <v>0</v>
@@ -4705,13 +4765,13 @@
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -4723,10 +4783,10 @@
         <v>20</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="I82" s="1" t="n">
         <v>0</v>
@@ -4734,13 +4794,13 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>13</v>
@@ -4760,13 +4820,13 @@
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
@@ -4775,7 +4835,7 @@
         <v>14</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G84" s="1" t="n">
         <v>19</v>
@@ -4784,18 +4844,21 @@
         <v>15</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>13</v>
@@ -4815,13 +4878,13 @@
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>13</v>
@@ -4833,7 +4896,10 @@
         <v>20</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="I86" s="1" t="n">
         <v>0</v>
@@ -4841,13 +4907,13 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
@@ -4859,10 +4925,10 @@
         <v>20</v>
       </c>
       <c r="G87" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="I87" s="1" t="n">
         <v>0</v>
@@ -4870,13 +4936,13 @@
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>13</v>
@@ -4896,13 +4962,13 @@
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>13</v>
@@ -4917,7 +4983,7 @@
         <v>12</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>59</v>
+        <v>300</v>
       </c>
       <c r="I89" s="1" t="n">
         <v>0</v>
@@ -4925,25 +4991,28 @@
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G90" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="I90" s="1" t="n">
         <v>0</v>
@@ -4951,13 +5020,13 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>13</v>
@@ -4977,13 +5046,13 @@
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>13</v>
@@ -5003,13 +5072,13 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>13</v>
@@ -5024,7 +5093,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>21</v>
+        <v>314</v>
       </c>
       <c r="I93" s="1" t="n">
         <v>0</v>
@@ -5032,14 +5101,14 @@
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="D94" s="1" t="s">
         <v>13</v>
       </c>
@@ -5047,27 +5116,30 @@
         <v>14</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>320</v>
+        <v>15</v>
       </c>
       <c r="I94" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
@@ -5087,13 +5159,13 @@
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>13</v>
@@ -5113,19 +5185,19 @@
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>20</v>
@@ -5139,13 +5211,13 @@
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -5165,13 +5237,13 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>13</v>
@@ -5183,7 +5255,10 @@
         <v>20</v>
       </c>
       <c r="G99" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I99" s="1" t="n">
         <v>0</v>
@@ -5191,13 +5266,13 @@
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>13</v>
@@ -5209,10 +5284,10 @@
         <v>20</v>
       </c>
       <c r="G100" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I100" s="1" t="n">
         <v>0</v>
@@ -5220,25 +5295,28 @@
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="I101" s="1" t="n">
         <v>0</v>
@@ -5246,13 +5324,13 @@
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>13</v>
@@ -5272,14 +5350,14 @@
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
       </c>
@@ -5287,27 +5365,30 @@
         <v>14</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G103" s="1" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="I103" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>13</v>
@@ -5333,13 +5414,13 @@
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
@@ -5359,28 +5440,28 @@
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="D106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="H106" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I106" s="1" t="n">
         <v>0</v>
@@ -5388,14 +5469,14 @@
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>358</v>
-      </c>
       <c r="D107" s="1" t="s">
         <v>13</v>
       </c>
@@ -5406,7 +5487,10 @@
         <v>20</v>
       </c>
       <c r="G107" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I107" s="1" t="n">
         <v>0</v>
@@ -5414,13 +5498,13 @@
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -5435,7 +5519,7 @@
         <v>2</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I108" s="1" t="n">
         <v>0</v>
@@ -5443,25 +5527,28 @@
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="I109" s="1" t="n">
         <v>0</v>
@@ -5484,27 +5571,30 @@
         <v>14</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G110" s="1" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>368</v>
+        <v>15</v>
       </c>
       <c r="I110" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>13</v>
@@ -5524,13 +5614,13 @@
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>13</v>
@@ -5550,13 +5640,13 @@
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>13</v>
@@ -5576,13 +5666,13 @@
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>13</v>
@@ -5602,13 +5692,13 @@
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>13</v>
@@ -5634,14 +5724,14 @@
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="D116" s="1" t="s">
         <v>13</v>
       </c>
@@ -5652,7 +5742,10 @@
         <v>20</v>
       </c>
       <c r="G116" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I116" s="1" t="n">
         <v>0</v>
@@ -5660,28 +5753,28 @@
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="D117" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G117" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="I117" s="1" t="n">
         <v>0</v>
@@ -5689,39 +5782,45 @@
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="D118" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G118" s="1" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I118" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>13</v>
@@ -5741,14 +5840,14 @@
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="D120" s="1" t="s">
         <v>13</v>
       </c>
@@ -5759,7 +5858,10 @@
         <v>20</v>
       </c>
       <c r="G120" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="I120" s="1" t="n">
         <v>0</v>
@@ -5767,28 +5869,28 @@
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="D121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H121" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="I121" s="1" t="n">
         <v>0</v>
@@ -5796,13 +5898,13 @@
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>13</v>
@@ -5822,13 +5924,13 @@
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>13</v>
@@ -5843,7 +5945,7 @@
         <v>3</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I123" s="1" t="n">
         <v>0</v>
@@ -5851,13 +5953,13 @@
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>13</v>
@@ -5877,14 +5979,14 @@
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>414</v>
-      </c>
       <c r="D125" s="1" t="s">
         <v>13</v>
       </c>
@@ -5892,7 +5994,7 @@
         <v>14</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G125" s="1" t="n">
         <v>19</v>
@@ -5901,18 +6003,21 @@
         <v>15</v>
       </c>
       <c r="I125" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>13</v>
@@ -5932,13 +6037,13 @@
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>13</v>
@@ -5958,13 +6063,13 @@
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>13</v>
@@ -5984,13 +6089,13 @@
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>13</v>
@@ -6010,13 +6115,13 @@
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>13</v>
@@ -6036,28 +6141,28 @@
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="D131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G131" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H131" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G131" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="I131" s="1" t="n">
         <v>0</v>
@@ -6112,13 +6217,19 @@
         <v>14</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G133" s="1" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I133" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6170,10 +6281,10 @@
         <v>20</v>
       </c>
       <c r="G135" s="1" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="I135" s="1" t="n">
         <v>0</v>
@@ -6274,7 +6385,7 @@
         <v>14</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G139" s="1" t="n">
         <v>19</v>
@@ -6283,7 +6394,10 @@
         <v>15</v>
       </c>
       <c r="I139" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6303,16 +6417,19 @@
         <v>14</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G140" s="1" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I140" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6396,13 +6513,13 @@
         <v>14</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G143" s="1" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c r="I143" s="1" t="n">
         <v>1</v>
@@ -6431,10 +6548,10 @@
         <v>20</v>
       </c>
       <c r="G144" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="I144" s="1" t="n">
         <v>0</v>
@@ -6486,10 +6603,10 @@
         <v>20</v>
       </c>
       <c r="G146" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I146" s="1" t="n">
         <v>0</v>
@@ -6518,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>402</v>
+        <v>481</v>
       </c>
       <c r="I147" s="1" t="n">
         <v>0</v>
@@ -6526,25 +6643,28 @@
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G148" s="1" t="n">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="I148" s="1" t="n">
         <v>0</v>
@@ -6552,13 +6672,13 @@
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>13</v>
@@ -6567,27 +6687,30 @@
         <v>14</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G149" s="1" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="I149" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>13</v>
@@ -6599,7 +6722,10 @@
         <v>20</v>
       </c>
       <c r="G150" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="I150" s="1" t="n">
         <v>0</v>
@@ -6607,13 +6733,13 @@
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>13</v>
@@ -6633,13 +6759,13 @@
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>13</v>
@@ -6654,7 +6780,7 @@
         <v>2</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I152" s="1" t="n">
         <v>0</v>
@@ -6662,13 +6788,13 @@
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>13</v>
@@ -6680,7 +6806,10 @@
         <v>20</v>
       </c>
       <c r="G153" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>502</v>
       </c>
       <c r="I153" s="1" t="n">
         <v>0</v>
@@ -6688,13 +6817,13 @@
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>13</v>
@@ -6706,10 +6835,10 @@
         <v>20</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>133</v>
+        <v>506</v>
       </c>
       <c r="I154" s="1" t="n">
         <v>0</v>
@@ -6717,13 +6846,13 @@
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>13</v>
@@ -6743,13 +6872,13 @@
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>13</v>
@@ -6775,13 +6904,13 @@
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>13</v>
@@ -6801,13 +6930,13 @@
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>13</v>
@@ -6827,13 +6956,13 @@
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>13</v>
@@ -6853,25 +6982,28 @@
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G160" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="I160" s="1" t="n">
         <v>0</v>
@@ -6879,13 +7011,13 @@
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>13</v>
@@ -6900,7 +7032,7 @@
         <v>1</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>21</v>
+        <v>314</v>
       </c>
       <c r="I161" s="1" t="n">
         <v>0</v>
@@ -6908,13 +7040,13 @@
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>13</v>
@@ -6934,13 +7066,13 @@
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>13</v>
@@ -6960,13 +7092,13 @@
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>13</v>
@@ -6975,27 +7107,30 @@
         <v>14</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G164" s="1" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="I164" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>13</v>
@@ -7015,13 +7150,13 @@
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>13</v>
@@ -7033,7 +7168,10 @@
         <v>20</v>
       </c>
       <c r="G166" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="I166" s="1" t="n">
         <v>0</v>
@@ -7041,25 +7179,28 @@
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G167" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="I167" s="1" t="n">
         <v>0</v>
@@ -7067,13 +7208,13 @@
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>13</v>
@@ -7093,13 +7234,13 @@
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>13</v>
@@ -7114,7 +7255,7 @@
         <v>5</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="I169" s="1" t="n">
         <v>0</v>
@@ -7122,13 +7263,13 @@
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>13</v>
@@ -7148,13 +7289,13 @@
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>13</v>
@@ -7174,13 +7315,13 @@
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>13</v>
@@ -7200,13 +7341,13 @@
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>13</v>
@@ -7226,19 +7367,19 @@
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>20</v>
@@ -7252,13 +7393,13 @@
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>13</v>
@@ -7270,10 +7411,10 @@
         <v>20</v>
       </c>
       <c r="G175" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="I175" s="1" t="n">
         <v>0</v>
@@ -7281,13 +7422,13 @@
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>13</v>
@@ -7299,7 +7440,10 @@
         <v>20</v>
       </c>
       <c r="G176" s="1" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I176" s="1" t="n">
         <v>0</v>
@@ -7307,13 +7451,13 @@
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>13</v>
@@ -7322,7 +7466,7 @@
         <v>14</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G177" s="1" t="n">
         <v>19</v>
@@ -7331,18 +7475,21 @@
         <v>15</v>
       </c>
       <c r="I177" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>13</v>
@@ -7368,13 +7515,13 @@
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>13</v>
@@ -7400,13 +7547,13 @@
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>13</v>
@@ -7426,13 +7573,13 @@
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>13</v>
@@ -7458,13 +7605,13 @@
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>13</v>
@@ -7490,13 +7637,13 @@
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>13</v>
@@ -7516,13 +7663,13 @@
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>13</v>
@@ -7542,13 +7689,13 @@
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>13</v>
@@ -7568,13 +7715,13 @@
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>13</v>
@@ -7583,27 +7730,30 @@
         <v>14</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G186" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I186" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H186" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I186" s="1" t="n">
-        <v>0</v>
+      <c r="J186" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>13</v>
@@ -7615,10 +7765,10 @@
         <v>20</v>
       </c>
       <c r="G187" s="1" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>239</v>
+        <v>608</v>
       </c>
       <c r="I187" s="1" t="n">
         <v>0</v>
@@ -7626,13 +7776,13 @@
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>13</v>
@@ -7652,19 +7802,19 @@
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>20</v>
@@ -7678,13 +7828,13 @@
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>13</v>
@@ -7696,7 +7846,10 @@
         <v>20</v>
       </c>
       <c r="G190" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="I190" s="1" t="n">
         <v>0</v>
@@ -7704,13 +7857,13 @@
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>13</v>
@@ -7730,19 +7883,19 @@
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>20</v>
@@ -7756,13 +7909,13 @@
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>13</v>
@@ -7782,13 +7935,13 @@
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>13</v>
@@ -7808,13 +7961,13 @@
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>13</v>
@@ -7834,13 +7987,13 @@
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>13</v>
@@ -7849,24 +8002,30 @@
         <v>14</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G196" s="1" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I196" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>13</v>
@@ -7886,13 +8045,13 @@
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>13</v>
@@ -7912,13 +8071,13 @@
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>13</v>
@@ -7933,7 +8092,7 @@
         <v>6</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="I199" s="1" t="n">
         <v>0</v>
@@ -7941,13 +8100,13 @@
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>13</v>
@@ -7962,7 +8121,7 @@
         <v>1</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>21</v>
+        <v>314</v>
       </c>
       <c r="I200" s="1" t="n">
         <v>0</v>
@@ -7970,13 +8129,13 @@
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>13</v>
@@ -7996,13 +8155,13 @@
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>13</v>
@@ -8028,13 +8187,13 @@
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>13</v>
@@ -8049,7 +8208,7 @@
         <v>16</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="I203" s="1" t="n">
         <v>0</v>
@@ -8057,13 +8216,13 @@
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>13</v>
@@ -8083,13 +8242,13 @@
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>13</v>
@@ -8115,13 +8274,13 @@
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>13</v>
@@ -8130,27 +8289,30 @@
         <v>14</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G206" s="1" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>660</v>
+        <v>15</v>
       </c>
       <c r="I206" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>13</v>
@@ -8170,13 +8332,13 @@
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>13</v>
@@ -8188,7 +8350,10 @@
         <v>20</v>
       </c>
       <c r="G208" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>673</v>
       </c>
       <c r="I208" s="1" t="n">
         <v>0</v>
@@ -8196,13 +8361,13 @@
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>13</v>
@@ -8214,10 +8379,10 @@
         <v>20</v>
       </c>
       <c r="G209" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="I209" s="1" t="n">
         <v>0</v>
@@ -8225,13 +8390,13 @@
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>13</v>
@@ -8243,10 +8408,10 @@
         <v>20</v>
       </c>
       <c r="G210" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="H210" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H210" s="1" t="s">
-        <v>674</v>
       </c>
       <c r="I210" s="1" t="n">
         <v>0</v>
@@ -8254,13 +8419,13 @@
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>13</v>
@@ -8280,13 +8445,13 @@
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>13</v>
@@ -8306,13 +8471,13 @@
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>13</v>
@@ -8332,13 +8497,13 @@
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>13</v>
@@ -8364,13 +8529,13 @@
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>13</v>
@@ -8390,13 +8555,13 @@
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>13</v>
@@ -8416,13 +8581,13 @@
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>13</v>
@@ -8431,24 +8596,30 @@
         <v>14</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G217" s="1" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I217" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>13</v>
@@ -8468,13 +8639,13 @@
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>13</v>
@@ -8494,19 +8665,19 @@
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>20</v>
@@ -8520,13 +8691,13 @@
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>13</v>
@@ -8546,13 +8717,13 @@
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>13</v>
@@ -8572,13 +8743,13 @@
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>13</v>
@@ -8590,10 +8761,10 @@
         <v>20</v>
       </c>
       <c r="G223" s="1" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>713</v>
+        <v>15</v>
       </c>
       <c r="I223" s="1" t="n">
         <v>0</v>
@@ -8601,13 +8772,13 @@
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>13</v>
@@ -8619,7 +8790,10 @@
         <v>20</v>
       </c>
       <c r="G224" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="I224" s="1" t="n">
         <v>0</v>
@@ -8627,13 +8801,13 @@
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>13</v>
@@ -8645,7 +8819,10 @@
         <v>20</v>
       </c>
       <c r="G225" s="1" t="n">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>725</v>
       </c>
       <c r="I225" s="1" t="n">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2427,7 +2427,7 @@
   <dimension ref="A1:J225"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="715">
   <si>
     <t xml:space="preserve">User Name</t>
   </si>
@@ -124,1749 +124,1722 @@
     <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f8f81d2c-579c-49cc-b96f-554dbfb860b2</t>
   </si>
   <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankit Malik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malikankit447@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/5c8d61a8-dfe2-413a-bc09-23b9bc2e89d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garvit Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garvitjain2007gj@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/329ea7ad-4f84-43e0-a0d9-70557c22b89d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nihita Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guptanihita@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/9cf419e6-2a1b-4c07-ae3f-76df9b4d0b3f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aastha Negi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aastha26negi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d44bba8f-270f-4106-9bc0-ed43c3d8bde9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shivansh Srivastava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onlyshivansh2005@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/63a47ed7-b940-4ccb-af2b-1cc324be84c3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parth Bhatt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wlfparth27@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b6ed5a61-16f0-455e-9530-fb80848a50eb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heervita Mistri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heervitamistri6@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e6c75767-675e-478b-9841-b106616023d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aryan Singh Shaktawat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shaktawat.aryan971@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d8a7509f-ba32-4164-9411-9ec26a016063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohan Batra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rohanbatraind@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/96716cb8-862b-49d0-9a4b-67376d7241da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stuti Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stutisingh17012005@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e18276a8-2113-49e8-982a-bf0b62ddc30b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pranav Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sharmapranav2245@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/dd3a3b24-b7ff-49fc-bb0d-65dbf8bcc16d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ojaswee Upadhyay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ojaswee2095@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3f576124-cd82-4385-ba10-159c969b65c5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prantik Sanki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prantiksanki1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/5482b0e1-eb2b-411f-99f1-70491d31db39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhumi Chugh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhumi.chugh99@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/44b07799-1648-450b-8357-c4283f7c4738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhyudaya Dutt Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhyudayadutt2007@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3f66ea3d-5ead-4e9d-b820-f6cb3a8c82b8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhavesh Rawat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cookingcapybara@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/549ac441-0e8d-48a7-843f-4a40e2e8d66b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devansh Bindal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devanshbindal16@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a6ccce90-6401-4a8a-b175-9c1af30b1bc4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saksham Bhardwaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sakshambhardwaj54@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/68063b6f-ea3b-4387-a14f-d8206449416c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soham Pahari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paharisuhan17@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/85716c99-6b59-406a-ac56-1164869aa040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahil narang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snarang445566@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/355616eb-38c2-46d8-a18a-687ba0cca3f9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meghna Dhakad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhakadmeghna88@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/74e09b04-5ec6-4334-8fa4-724ddd23a9d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya Bahuguna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adityabahuguna200@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/046895d4-6e97-4499-8dc6-1247cf58fc75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prince Singhalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">princesinghalia@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/709bea37-b877-4a87-a092-e0439b4a67f1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhinav Parth Nautiyal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhinav07nautiyal@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/ebb3af7f-e2df-4a5d-881a-93b723b8e40b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kushagra Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jainkushagrawork@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/ceae3264-01a3-422d-add1-a440a35c0960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parth Garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parthgargstudent@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4070f33e-43d1-4155-ad44-5d77647d20cf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harshita Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harshitayadav375@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/12ac3320-b16e-4001-9ec9-4609eb9b7523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavish Goyal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lavishgoyal0209@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/804c3a6b-bde5-41b2-a144-48f0388e7f57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yash Chouksey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ychouksey7@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c08d384d-acee-49ad-a997-9ec99c481f4c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amulya Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alokik.amulyajain@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/08ee5188-1235-45aa-85b2-50f5e2fea545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aryaman Upadhyay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14aryaman.feb@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/5d483cda-9fc6-44b0-8287-2ede365d8f4c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiya Ajmera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jiyaajmera18@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6f144667-a023-4128-b90f-657b9d4b7ff7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKSH CHAUHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aksh111828@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6fc9317b-1923-427e-83d8-22e3de7a6954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratiush Paliwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pratiushpaliwal.dev@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3280f19f-2dd4-47d9-893c-ea01878bef0a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megha Gehlot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meghagehlot03@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a7c79ebc-2717-4326-a9f6-366f0c882f43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aadi Agarwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aadiagarwal65@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2394fb35-9062-49db-be19-a7a42963fa82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vedansh Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vedanshsinghyadav05@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e135db21-8471-44cc-9c39-fd731e003425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kartikay Chaudhary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">namankartikay94@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/cc79a9ef-5837-4e2f-9c09-55e49912c0eb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soma Rawat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">somarawat2812@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/09dcd77e-b98f-4092-a6cf-88d81e9b6a01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahed khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fahedkhan0379@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2e8bff10-3368-4d61-b9d9-c902613ce2f9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arya vijay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iamaryavj14@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/deb8cdb9-1c74-40f7-912c-709dce5d2bb9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divya Sreenidhi Arigala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arigalads@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/8929b923-d16a-4e5d-ad79-6ed521810b2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udit Verma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">udit.workspace8@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/9eede3e0-1c1a-41a3-b11c-7a050457bfc4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saransh Aswal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aswalsaransh2007@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f6ed4c2f-1aa5-4203-afd9-1561130c4d95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayush Pandey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayush1983pandey@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/477aa24d-f5a5-46c1-af9b-1424e909e6d0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya Shrivastava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aditya.shrivastava.082005@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c5f2e5d7-d7d8-4b65-9983-38618319fb04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devanshi Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devanshijain@ieee.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d035e918-4293-495f-ad02-1f70d46a73b5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anshuman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">razputhere@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/8758b9c3-92d4-4876-ab4e-c071904e6af8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shivang Mangal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shivangmangal@ieee.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/73b7f31d-600b-4a90-b436-6a2b7bf3c3f7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doorva Adhikari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doorvaadhikari@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4dae4508-83cd-4812-97f1-1e44b0cf8ebd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vedika Garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vedikav0@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/776205c0-55ed-440c-a672-28b0536df878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anshuman Agrawal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anshuman980712@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d62710c7-3ba1-442a-99d5-52051e8413de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suhani Soni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suhanisoni98120@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/24660c88-e276-4363-b9cc-1e6c7f4ab5a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jahnavi Saxena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jahnavisaxena2304@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/759adbba-6fed-4604-a4f6-d2d4abae9ec4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saransh Sinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saranshsinha.04@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/fa0387ec-eac7-4900-b835-e236d33c21be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parthib Halder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parthibhalder21@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/5ae745ef-8b97-44f0-8be8-4ed2ec280879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satwik Dash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worksatwikdash@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d2ae66f4-4900-4c83-a1cf-7be606b8149d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayushmaan Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayushmaan0313@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4ff9d2dd-5387-42fa-925e-507c1dd7d428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veenit Kumar Pradhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veenit.pradhan2277@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/884bd6d9-4c9a-4080-9c96-cbe1b3e52c6f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kruthika tummala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kruthikatummala02@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b33e43a7-31fc-45f2-aec5-ec7f659bd7c8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srishti Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srishtig0711@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3ccfc744-72c0-4e46-950c-7152cff45fb1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhiram Bhamidipati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhiram.bhamidipati@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d81ea0d2-4b31-4b2d-933e-9361eccc664b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kattyayni Dwivedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kattyayni.125713@stu.upes.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3647f136-0518-4132-b2bd-80f0d64eaf6b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shashwat Kashyap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shashwatktiwary@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/9d1c5d53-13a2-4c6a-a21d-436be367bebe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaishnavi Srivastava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vaishnavisri504@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/cb67b1c8-1071-48ac-a8fd-67c49c191d40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayush Mehta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayushmehtabps@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b7994eae-639a-446a-b356-c8533ad97a09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aakshat Garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aakshatg@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3b5d005b-8d3b-4c5e-bcfb-728fe947e2d7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akshara Mishra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akshi27mi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/0f0096ce-b186-4643-87b4-aadb16d81ead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikhil Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nothin.main@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3a28ee20-df8a-437c-be8e-6dd1128b9c35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahana Chauhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tanuchauhan2004@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/754bc290-4a94-4fb9-9577-dd35d73f2bc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shivansh Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icecubeses@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/964111dd-c041-4215-94a0-525f7b43d35f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saksham Nigam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sakshamnigam03@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/80d2f7ba-419e-434e-9780-bb6072cd1e44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armaan Arora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arorarmaan321@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/689f59cc-a4ba-435b-a0b5-94866b6726b3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yash Krishan Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yashkrishangupta@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/81772c52-113e-4883-9929-c6719c81a4e6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shubhang Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rustedshader@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b846b1ab-8379-4e00-b52e-e02dd2c362ce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanya chhabra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanyacixa50@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b1590a43-1d1c-4833-aaee-09a84d1d78c0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratham Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prathamjain671@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/13d11cab-07dc-400c-8a29-f56f6a7c3a61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mazerunner793@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d248f35f-a076-453f-8e6c-d1c793fc1f61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnav Srivastava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnav.125208@stu.upes.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/31bc2677-76ba-4fdc-91fd-19d7c0969063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pari jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parijain4141@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f002e499-513a-4951-b3f9-b7ddb3254da3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samyaak Gharat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gharatsamyaak@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/43db8434-82ae-417a-9850-ead8eec86b67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adit Verma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aditunavailable@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/751b2559-8240-4179-bfc8-5d2059c5e2ce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yog Pandey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yogpandey.tgt@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/cc4b7913-ffde-463c-b79b-5f14f6e5e51e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyanka Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priyankasinghx7@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/71c621a8-91d3-49a9-bf63-6306920bc758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lopamudra Upadhyay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upadhyaylopamudra@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/78e41060-a846-4065-9ce9-0732344e3bbf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muskan Chaudhary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdschaudhary47@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2e8e6dca-a4e7-4961-851b-ae535e7b7156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samagra Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gsamagra93@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c8d736ba-a28e-466a-9912-b02e5e3fbadc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhyudaya.25624@stu.upes.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/fd2da2b5-ad20-4a7b-9faf-99197c25e136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nishika Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yadavnishika2007@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/392301ee-007d-45e2-b89f-727801593a57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suryansh thapliyal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thapliyalsuryansh@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6442090b-aef1-41ac-9978-8628ff5b91de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditi Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aditisharma152425@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/061a124b-e9c3-41d2-b161-cd09b5b5f94e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DARSH MAHOBIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">darshmahobia79@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/63425048-ca29-4274-8e1f-5063dd8137af</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge]</t>
   </si>
   <si>
-    <t xml:space="preserve">Ankit Malik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malikankit447@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/5c8d61a8-dfe2-413a-bc09-23b9bc2e89d3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garvit Jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">garvitjain2007gj@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/329ea7ad-4f84-43e0-a0d9-70557c22b89d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nihita Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guptanihita@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/9cf419e6-2a1b-4c07-ae3f-76df9b4d0b3f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aastha Negi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aastha26negi@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d44bba8f-270f-4106-9bc0-ed43c3d8bde9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shivansh Srivastava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onlyshivansh2005@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/63a47ed7-b940-4ccb-af2b-1cc324be84c3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parth Bhatt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wlfparth27@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b6ed5a61-16f0-455e-9530-fb80848a50eb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heervita Mistri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heervitamistri6@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e6c75767-675e-478b-9841-b106616023d3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aryan Singh Shaktawat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shaktawat.aryan971@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d8a7509f-ba32-4164-9411-9ec26a016063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rohan Batra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rohanbatraind@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/96716cb8-862b-49d0-9a4b-67376d7241da</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stuti Singh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stutisingh17012005@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e18276a8-2113-49e8-982a-bf0b62ddc30b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pranav Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sharmapranav2245@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/dd3a3b24-b7ff-49fc-bb0d-65dbf8bcc16d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ojaswee Upadhyay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ojaswee2095@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3f576124-cd82-4385-ba10-159c969b65c5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prantik Sanki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prantiksanki1@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/5482b0e1-eb2b-411f-99f1-70491d31db39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhumi Chugh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bhumi.chugh99@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/44b07799-1648-450b-8357-c4283f7c4738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhyudaya Dutt Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abhyudayadutt2007@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3f66ea3d-5ead-4e9d-b820-f6cb3a8c82b8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhavesh Rawat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cookingcapybara@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/549ac441-0e8d-48a7-843f-4a40e2e8d66b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devansh Bindal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devanshbindal16@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a6ccce90-6401-4a8a-b175-9c1af30b1bc4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saksham Bhardwaj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sakshambhardwaj54@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/68063b6f-ea3b-4387-a14f-d8206449416c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soham Pahari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paharisuhan17@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/85716c99-6b59-406a-ac56-1164869aa040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahil narang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snarang445566@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/355616eb-38c2-46d8-a18a-687ba0cca3f9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meghna Dhakad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dhakadmeghna88@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/74e09b04-5ec6-4334-8fa4-724ddd23a9d3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aditya Bahuguna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adityabahuguna200@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/046895d4-6e97-4499-8dc6-1247cf58fc75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prince Singhalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">princesinghalia@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/709bea37-b877-4a87-a092-e0439b4a67f1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhinav Parth Nautiyal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abhinav07nautiyal@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/ebb3af7f-e2df-4a5d-881a-93b723b8e40b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kushagra Jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jainkushagrawork@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/ceae3264-01a3-422d-add1-a440a35c0960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parth Garg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parthgargstudent@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4070f33e-43d1-4155-ad44-5d77647d20cf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harshita Yadav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">harshitayadav375@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/12ac3320-b16e-4001-9ec9-4609eb9b7523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lavish Goyal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lavishgoyal0209@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/804c3a6b-bde5-41b2-a144-48f0388e7f57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yash Chouksey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ychouksey7@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c08d384d-acee-49ad-a997-9ec99c481f4c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amulya Jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alokik.amulyajain@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/08ee5188-1235-45aa-85b2-50f5e2fea545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Dataplex [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aryaman Upadhyay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14aryaman.feb@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/5d483cda-9fc6-44b0-8287-2ede365d8f4c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiya Ajmera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jiyaajmera18@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6f144667-a023-4128-b90f-657b9d4b7ff7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKSH CHAUHAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aksh111828@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6fc9317b-1923-427e-83d8-22e3de7a6954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pratiush Paliwal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pratiushpaliwal.dev@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3280f19f-2dd4-47d9-893c-ea01878bef0a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megha Gehlot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meghagehlot03@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a7c79ebc-2717-4326-a9f6-366f0c882f43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aadi Agarwal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aadiagarwal65@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2394fb35-9062-49db-be19-a7a42963fa82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vedansh Singh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vedanshsinghyadav05@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e135db21-8471-44cc-9c39-fd731e003425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kartikay Chaudhary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">namankartikay94@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/cc79a9ef-5837-4e2f-9c09-55e49912c0eb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soma Rawat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">somarawat2812@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/09dcd77e-b98f-4092-a6cf-88d81e9b6a01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahed khan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fahedkhan0379@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2e8bff10-3368-4d61-b9d9-c902613ce2f9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arya vijay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iamaryavj14@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/deb8cdb9-1c74-40f7-912c-709dce5d2bb9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divya Sreenidhi Arigala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arigalads@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/8929b923-d16a-4e5d-ad79-6ed521810b2d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Udit Verma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">udit.workspace8@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/9eede3e0-1c1a-41a3-b11c-7a050457bfc4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saransh Aswal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aswalsaransh2007@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f6ed4c2f-1aa5-4203-afd9-1561130c4d95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayush Pandey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ayush1983pandey@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/477aa24d-f5a5-46c1-af9b-1424e909e6d0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aditya Shrivastava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aditya.shrivastava.082005@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c5f2e5d7-d7d8-4b65-9983-38618319fb04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devanshi Jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devanshijain@ieee.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d035e918-4293-495f-ad02-1f70d46a73b5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anshuman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">razputhere@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/8758b9c3-92d4-4876-ab4e-c071904e6af8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shivang Mangal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shivangmangal@ieee.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/73b7f31d-600b-4a90-b436-6a2b7bf3c3f7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doorva Adhikari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doorvaadhikari@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4dae4508-83cd-4812-97f1-1e44b0cf8ebd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vedika Garg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vedikav0@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/776205c0-55ed-440c-a672-28b0536df878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anshuman Agrawal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anshuman980712@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d62710c7-3ba1-442a-99d5-52051e8413de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suhani Soni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suhanisoni98120@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/24660c88-e276-4363-b9cc-1e6c7f4ab5a2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jahnavi Saxena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jahnavisaxena2304@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/759adbba-6fed-4604-a4f6-d2d4abae9ec4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saransh Sinha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saranshsinha.04@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/fa0387ec-eac7-4900-b835-e236d33c21be</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parthib Halder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parthibhalder21@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/5ae745ef-8b97-44f0-8be8-4ed2ec280879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satwik Dash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worksatwikdash@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d2ae66f4-4900-4c83-a1cf-7be606b8149d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayushmaan Singh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ayushmaan0313@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4ff9d2dd-5387-42fa-925e-507c1dd7d428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veenit Kumar Pradhan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">veenit.pradhan2277@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/884bd6d9-4c9a-4080-9c96-cbe1b3e52c6f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kruthika tummala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kruthikatummala02@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b33e43a7-31fc-45f2-aec5-ec7f659bd7c8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srishti Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">srishtig0711@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3ccfc744-72c0-4e46-950c-7152cff45fb1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhiram Bhamidipati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abhiram.bhamidipati@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d81ea0d2-4b31-4b2d-933e-9361eccc664b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kattyayni Dwivedi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kattyayni.125713@stu.upes.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3647f136-0518-4132-b2bd-80f0d64eaf6b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Prompt Design in Vertex AI [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shashwat Kashyap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shashwatktiwary@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/9d1c5d53-13a2-4c6a-a21d-436be367bebe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaishnavi Srivastava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vaishnavisri504@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/cb67b1c8-1071-48ac-a8fd-67c49c191d40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayush Mehta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ayushmehtabps@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b7994eae-639a-446a-b356-c8533ad97a09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aakshat Garg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aakshatg@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3b5d005b-8d3b-4c5e-bcfb-728fe947e2d7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akshara Mishra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">akshi27mi@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/0f0096ce-b186-4643-87b4-aadb16d81ead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nikhil Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nothin.main@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3a28ee20-df8a-437c-be8e-6dd1128b9c35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahana Chauhan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tanuchauhan2004@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/754bc290-4a94-4fb9-9577-dd35d73f2bc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shivansh Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icecubeses@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/964111dd-c041-4215-94a0-525f7b43d35f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saksham Nigam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sakshamnigam03@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/80d2f7ba-419e-434e-9780-bb6072cd1e44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armaan Arora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arorarmaan321@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/689f59cc-a4ba-435b-a0b5-94866b6726b3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yash Krishan Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yashkrishangupta@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/81772c52-113e-4883-9929-c6719c81a4e6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shubhang Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rustedshader@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b846b1ab-8379-4e00-b52e-e02dd2c362ce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanya chhabra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanyacixa50@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b1590a43-1d1c-4833-aaee-09a84d1d78c0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pratham Jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prathamjain671@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/13d11cab-07dc-400c-8a29-f56f6a7c3a61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mazerunner793@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d248f35f-a076-453f-8e6c-d1c793fc1f61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arnav Srivastava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arnav.125208@stu.upes.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/31bc2677-76ba-4fdc-91fd-19d7c0969063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pari jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parijain4141@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f002e499-513a-4951-b3f9-b7ddb3254da3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samyaak Gharat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gharatsamyaak@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/43db8434-82ae-417a-9850-ead8eec86b67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adit Verma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aditunavailable@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/751b2559-8240-4179-bfc8-5d2059c5e2ce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yog Pandey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yogpandey.tgt@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/cc4b7913-ffde-463c-b79b-5f14f6e5e51e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priyanka Singh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priyankasinghx7@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/71c621a8-91d3-49a9-bf63-6306920bc758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lopamudra Upadhyay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upadhyaylopamudra@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/78e41060-a846-4065-9ce9-0732344e3bbf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muskan Chaudhary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdschaudhary47@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2e8e6dca-a4e7-4961-851b-ae535e7b7156</t>
+    <t xml:space="preserve">Srishti jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srishtijain906@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/46c1c253-c918-4f4f-a84a-479e65e17250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ritkriti Goyal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ritkritigoyal@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3beffea1-3eb6-48ee-837f-2ca2203bff07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYUSH RICHHARIYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayushrichhariya2006oficial@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4a28726d-6c5e-4c36-b5f8-68a2769a8312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arjit Pathak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arjitpathak805@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/dfd92f1c-a7fd-4a6e-b450-a8d13c4057b5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhishek Gaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhishekgaur2705@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f2f0d9c1-ae9c-4481-bda2-bd3dfd05ef7e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anurag Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iamanuragupta19@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/8b40908e-43b0-4d34-a081-733a3235225c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayank Tanishk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mayank.tanishk2006@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a8fa8edc-7c7a-4b7e-add2-f6cd17088efb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rijul Mittal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rishu20061022@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/0445c76b-60cc-40c7-8402-bae4196d1916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishesh gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8295408298v@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/077a2bc5-f3f4-4e44-8e27-ab4663908f71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaryan Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aryanshm100@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/9a3eaf87-d0ea-422e-a95f-2fd170be4cc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Started with Looker [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankit Kumar Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankity6937@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/5a4c4088-b19b-474c-b6f9-d18128360b08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rachit Madhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">madharrachit@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d12f3658-71e0-4450-b1d0-3b3e0fec7526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohit Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rohit.yadav18j@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2da0aee1-b473-4913-bbba-acbe8d36422b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tusharika seth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tusharikaseth.2020@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c1298f1f-5414-4b37-b5fb-2f3adcb16052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avani Garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avanigarg2007@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d5b79f63-9b01-4611-9b67-d583f0a778a4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sneha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sneha.25182@stu.upes.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/dbf223c6-2a0e-4014-b0a6-6df5ddad6fac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoorv Bansal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apoorvg685@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/dbd7abc9-3d38-4ef8-bfb4-7265622cb306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnav Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ronypankaj30@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f8cd44d5-253c-4061-b6bb-52ca42213282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanshraj singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanshraj.cloudskillboost@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/0d09dede-3308-4250-8e43-9be9fddd84fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saumya Bhalothia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saumyabhalothia1719@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/68a19d38-421b-4e9e-a461-9a9fffb104c3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vansh Bhasin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vansh.122768@stu.upes.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e7fd31ad-2f56-4323-bb37-d97fcc88866d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aryan Sejwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aryansejwal2020@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d0c2d829-6b0c-4337-9876-72f059090d95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Started with Pub/Sub [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratik Kaushal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaushalpratik1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/da5c1f3b-a54c-414d-9f84-438b7b4123a6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanshika Rawat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one.shika16@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/1ae7424d-27cd-444f-80cd-cd57692db00c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arya Sahu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aryasahu1606@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/085428d4-108a-4396-8f81-b95aa9567095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paras Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parasjain181006@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f5752748-ef55-4722-aa4c-0cba1020acb0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hritvik Garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hritvik2105garg@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/0d7a8380-e484-4c22-9c3c-2f768765587a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amarpreet Kaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amritkirat96@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/96c2df31-94ad-4d72-854d-20fd182cdc79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shourya singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shourya1713@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a23a304c-b179-4424-9560-8c1d03eb6e35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnav Garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arnavgargdps@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/72ccb3f9-8353-4934-9d50-df3c99dc6709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anchit saxena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anchitsaxena2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/75609fa2-668c-4055-924f-2184a6c4491f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nivedan Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nivedansingh335@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6c7f1563-18df-4003-bc31-d03b0a82eb76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parth Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001.parth.dev@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/738b6fec-0efb-47ae-b7b8-4cb0e498be40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dev arora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devsrgs05@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b0f713c1-8e4f-4aad-bbb8-68213e73c8a9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhishek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhishek.keyt@proton.me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/75fe0331-ed99-4616-8e93-abbc07a8bb87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raghav Pandey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raghavpandey127546@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/08f30db2-4ff8-47d8-bc48-23d33ad0cac8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhijeet Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhijeetjain3030@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/1f4578f3-8180-4119-8322-2e949d8cf6b0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAHUL SINGH BHANDARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rahulbhandari1250@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/988f209a-f937-4ecd-8f0b-ed7368fa19cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikita Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nikitasharma21360@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c33b172a-897e-4626-8f0f-ac3ab79172fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kushagra Ranjan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kushagraranjankr@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e2da73d5-d9cb-4b67-b002-dd382f32fe6d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khushi Mehrotra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khushimehrotra2401@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a429bd6c-11e4-4983-87e4-123ec4510468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhijeet Deshwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mailtoabhijeetdeshwal@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4691182f-0255-4b86-97bf-f948cfd857c2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kavya Garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gargkavya931@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a8514341-c24b-431c-ba43-1e4783b4474a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pranjal Goyal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">broskiduniya24@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/de841304-d62a-4ac1-95f6-e21811417f2c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumit kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sumitkumar94038@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/ce9e4d08-f683-48c2-9844-18d1bca2d86f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vashu Kulashri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ckcegg2006@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/043c324a-92c1-4e9d-8cbc-ec263563f776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anishka singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anishkasinghclass9@gamil.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6709e7ab-cd86-4a4a-af65-cf1282d0a078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaijanti Aswal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vaijantiaswal8@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/fbbcf800-2f30-4543-89ec-772140adbc6a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naman Dixit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naman.125539@stu.upes.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4497dd51-982e-468a-be82-fff32f297777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanak Shree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kanakshree2005@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6ee269f1-e635-4d36-8fa6-59bf7d291c8b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misthi Bansal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">misthiibansal4@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6aa237c8-acc1-4ded-a359-3492175690ed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanshika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanshikakhatri21@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/365f9ec4-5bab-492b-ba13-7b9247692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parth Joshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frostgameing0@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/cab76aa6-adf2-44e1-82b9-a69c2210c080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anushka tomar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomaranushka949@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3103f4b7-680d-4763-ac81-41709c0bd1ce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raghvendra Goyal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raghvendragoyal18@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/fe3833f8-f65f-4ef2-93a1-cd551044a0bd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhinav apurv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhinavapoorva2007@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4d8756cd-d5fa-416e-9de6-2d91e5713cd4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipesh Mittal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dipeshmittal71006@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c680ce3e-f4a9-4d69-b493-5cdd76e0e744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omansh Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdg.arcade.omansh.1296@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/8749c325-3c8f-49dd-97aa-9897422e0315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shreya Mahara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missshreyamahara@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/1efa3ae7-297c-4ea1-8f78-e99281f22e91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daksh Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daksh.sharma7817@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/64c34fbe-e7d8-4d55-8e0c-02f41ad49a8e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nistha Kachhwaha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nisthakachhwaha15@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/ad4f18a6-5985-4589-865b-86ffef5a1a64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shreya Pandey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sshhrreeyyaapp@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f9276529-4b36-4daf-aedb-aa3c117064a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K Arya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mearya083@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6005fbdc-d436-48d3-b3af-4909de202acf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kartik Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kartikguptaa0@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/43f39bc9-ee83-4794-a047-c75dc2e35ebb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vansh saini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanshsa1234@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/76c65d62-f2df-4cea-a567-800ec411aa22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohit Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guptaradha1981@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/806b82a0-feb9-4ff3-922a-505c57bb8d65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vansh Wadhwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vansh5846g@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/730c8e42-a4ed-4017-bf93-e9488a8f6a5f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AADITYA RAJ DIXIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaditya.dixit004@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/97dfec47-5602-4b77-8a56-23968699d828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vipransh Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vipransh0228@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/7b77fee4-5b85-4d1a-832d-e409cea1f6e5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhineet Tandon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhineet.tandon07@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6ac71390-115f-44d0-81ee-aab657acfd6f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shivya arora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shivya2005@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2fa70965-e87d-40ac-87fa-4833a20c03b1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akshat Dwivedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akshat.26799@stu.upes.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d22fcd7f-9c9b-4b52-9a4d-267fbef12273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harshit garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harshitgarg3008@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/9e5ffebc-8d0a-426c-aa5c-d2bfcf50e047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yashvi Manojkumar Patel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y8shvi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c654845d-8212-4f97-b115-7d70e1714546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niharika bhatt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">niharikaabhatt21@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e49f1ac1-980c-465a-a6a8-d0a5d954e1a9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drishti Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drishtig1176@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/31399d7b-b3c2-409f-b8c8-239903a9b269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parth Pandey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parthpandey1947@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/240dfabd-b235-474b-aed2-c646c9984aaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anu Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anuyadav9595@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b0316f65-7f0d-442f-ab5a-209ce2656613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taraksh Goyal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taraksh9a33@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2b0b65d0-5a81-421c-803a-01093ee3e753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krishna Gera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">krishnageraofficial@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d9611b7e-6496-4f62-a846-e75db7e767cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raghav gaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raghavgaur.k.s@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d534fa2b-51b9-4454-b100-fe80d793d249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayush kumar singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singhxayush100@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/87ad7d62-9a8c-407b-b1cb-8de752832455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krishika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">krishika1400@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/33c8ef3f-4f19-4765-9bf0-79c60534ff05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakshya Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lakshya.gupta2006l@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e329aa96-f62f-45f4-b1be-4a4bcf8d6f27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhavyansh Tyagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tyagibhavyansh123@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3660fec4-f40e-491a-bc6b-8d264365c709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siddharth Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guptasiddharth1712@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/26cffbdc-f6f0-4acc-969f-844a606fb65d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anshika Saxena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anshikasaxena1952@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/80cd8b1e-a934-4e7e-aa90-c6a31116c5c8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhinav Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhinav.7vy@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d6d99559-43ba-4cb8-8f70-58a069bb0aa9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aadvit more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aadvitmore@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d63bfcda-e924-448f-868b-b74e6890cd8a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devansh purohit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devanshpurohit1710@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6e8544ed-c1d9-43dd-b3f2-4fda66865f70</t>
   </si>
   <si>
     <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
-    <t xml:space="preserve">Samagra Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gsamagra93@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c8d736ba-a28e-466a-9912-b02e5e3fbadc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abhyudaya.25624@stu.upes.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/fd2da2b5-ad20-4a7b-9faf-99197c25e136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nishika Yadav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yadavnishika2007@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/392301ee-007d-45e2-b89f-727801593a57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suryansh thapliyal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thapliyalsuryansh@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6442090b-aef1-41ac-9978-8628ff5b91de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aditi Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aditisharma152425@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/061a124b-e9c3-41d2-b161-cd09b5b5f94e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DARSH MAHOBIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">darshmahobia79@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/63425048-ca29-4274-8e1f-5063dd8137af</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srishti jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">srishtijain906@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/46c1c253-c918-4f4f-a84a-479e65e17250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritkriti Goyal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ritkritigoyal@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3beffea1-3eb6-48ee-837f-2ca2203bff07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | App Engine: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AYUSH RICHHARIYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ayushrichhariya2006oficial@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4a28726d-6c5e-4c36-b5f8-68a2769a8312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arjit Pathak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arjitpathak805@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/dfd92f1c-a7fd-4a6e-b450-a8d13c4057b5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhishek Gaur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abhishekgaur2705@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f2f0d9c1-ae9c-4481-bda2-bd3dfd05ef7e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anurag Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iamanuragupta19@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/8b40908e-43b0-4d34-a081-733a3235225c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayank Tanishk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mayank.tanishk2006@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a8fa8edc-7c7a-4b7e-add2-f6cd17088efb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rijul Mittal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rishu20061022@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/0445c76b-60cc-40c7-8402-bae4196d1916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vishesh gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8295408298v@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/077a2bc5-f3f4-4e44-8e27-ab4663908f71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aaryan Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aryanshm100@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/9a3eaf87-d0ea-422e-a95f-2fd170be4cc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Started with Looker [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ankit Kumar Yadav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ankity6937@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/5a4c4088-b19b-474c-b6f9-d18128360b08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rachit Madhar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madharrachit@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d12f3658-71e0-4450-b1d0-3b3e0fec7526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rohit Yadav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rohit.yadav18j@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2da0aee1-b473-4913-bbba-acbe8d36422b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tusharika seth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tusharikaseth.2020@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c1298f1f-5414-4b37-b5fb-2f3adcb16052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avani Garg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avanigarg2007@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d5b79f63-9b01-4611-9b67-d583f0a778a4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sneha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sneha.25182@stu.upes.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/dbf223c6-2a0e-4014-b0a6-6df5ddad6fac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apoorv Bansal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apoorvg685@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/dbd7abc9-3d38-4ef8-bfb4-7265622cb306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arnav Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ronypankaj30@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f8cd44d5-253c-4061-b6bb-52ca42213282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vanshraj singh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vanshraj.cloudskillboost@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/0d09dede-3308-4250-8e43-9be9fddd84fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saumya Bhalothia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saumyabhalothia1719@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/68a19d38-421b-4e9e-a461-9a9fffb104c3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vansh Bhasin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vansh.122768@stu.upes.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e7fd31ad-2f56-4323-bb37-d97fcc88866d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aryan Sejwal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aryansejwal2020@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d0c2d829-6b0c-4337-9876-72f059090d95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Started with Pub/Sub [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pratik Kaushal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kaushalpratik1@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/da5c1f3b-a54c-414d-9f84-438b7b4123a6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanshika Rawat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">one.shika16@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/1ae7424d-27cd-444f-80cd-cd57692db00c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arya Sahu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aryasahu1606@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/085428d4-108a-4396-8f81-b95aa9567095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paras Jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parasjain181006@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f5752748-ef55-4722-aa4c-0cba1020acb0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hritvik Garg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hritvik2105garg@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/0d7a8380-e484-4c22-9c3c-2f768765587a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amarpreet Kaur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amritkirat96@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/96c2df31-94ad-4d72-854d-20fd182cdc79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shourya singh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shourya1713@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a23a304c-b179-4424-9560-8c1d03eb6e35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arnav Garg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arnavgargdps@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/72ccb3f9-8353-4934-9d50-df3c99dc6709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anchit saxena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anchitsaxena2@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/75609fa2-668c-4055-924f-2184a6c4491f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nivedan Singh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nivedansingh335@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6c7f1563-18df-4003-bc31-d03b0a82eb76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Looker [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parth Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001.parth.dev@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/738b6fec-0efb-47ae-b7b8-4cb0e498be40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dev arora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devsrgs05@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b0f713c1-8e4f-4aad-bbb8-68213e73c8a9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhishek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abhishek.keyt@proton.me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/75fe0331-ed99-4616-8e93-abbc07a8bb87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raghav Pandey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raghavpandey127546@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/08f30db2-4ff8-47d8-bc48-23d33ad0cac8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhijeet Jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abhijeetjain3030@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/1f4578f3-8180-4119-8322-2e949d8cf6b0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAHUL SINGH BHANDARI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rahulbhandari1250@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/988f209a-f937-4ecd-8f0b-ed7368fa19cd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nikita Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nikitasharma21360@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c33b172a-897e-4626-8f0f-ac3ab79172fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kushagra Ranjan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kushagraranjankr@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e2da73d5-d9cb-4b67-b002-dd382f32fe6d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khushi Mehrotra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">khushimehrotra2401@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a429bd6c-11e4-4983-87e4-123ec4510468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhijeet Deshwal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mailtoabhijeetdeshwal@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4691182f-0255-4b86-97bf-f948cfd857c2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kavya Garg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gargkavya931@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a8514341-c24b-431c-ba43-1e4783b4474a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pranjal Goyal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">broskiduniya24@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/de841304-d62a-4ac1-95f6-e21811417f2c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sumit kumar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sumitkumar94038@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/ce9e4d08-f683-48c2-9844-18d1bca2d86f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vashu Kulashri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ckcegg2006@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/043c324a-92c1-4e9d-8cbc-ec263563f776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anishka singh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anishkasinghclass9@gamil.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6709e7ab-cd86-4a4a-af65-cf1282d0a078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaijanti Aswal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vaijantiaswal8@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/fbbcf800-2f30-4543-89ec-772140adbc6a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naman Dixit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naman.125539@stu.upes.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4497dd51-982e-468a-be82-fff32f297777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanak Shree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kanakshree2005@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6ee269f1-e635-4d36-8fa6-59bf7d291c8b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misthi Bansal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">misthiibansal4@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6aa237c8-acc1-4ded-a359-3492175690ed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Prompt Design in Vertex AI [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanshika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vanshikakhatri21@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/365f9ec4-5bab-492b-ba13-7b9247692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parth Joshi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frostgameing0@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/cab76aa6-adf2-44e1-82b9-a69c2210c080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anushka tomar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tomaranushka949@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3103f4b7-680d-4763-ac81-41709c0bd1ce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raghvendra Goyal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raghvendragoyal18@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/fe3833f8-f65f-4ef2-93a1-cd551044a0bd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Prompt Design in Vertex AI [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhinav apurv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abhinavapoorva2007@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/4d8756cd-d5fa-416e-9de6-2d91e5713cd4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dipesh Mittal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dipeshmittal71006@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c680ce3e-f4a9-4d69-b493-5cdd76e0e744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omansh Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gdg.arcade.omansh.1296@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/8749c325-3c8f-49dd-97aa-9897422e0315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shreya Mahara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">missshreyamahara@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/1efa3ae7-297c-4ea1-8f78-e99281f22e91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daksh Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daksh.sharma7817@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/64c34fbe-e7d8-4d55-8e0c-02f41ad49a8e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nistha Kachhwaha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nisthakachhwaha15@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/ad4f18a6-5985-4589-865b-86ffef5a1a64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shreya Pandey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sshhrreeyyaapp@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/f9276529-4b36-4daf-aedb-aa3c117064a2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K Arya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mearya083@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6005fbdc-d436-48d3-b3af-4909de202acf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kartik Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kartikguptaa0@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/43f39bc9-ee83-4794-a047-c75dc2e35ebb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vansh saini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vanshsa1234@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/76c65d62-f2df-4cea-a567-800ec411aa22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rohit Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guptaradha1981@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/806b82a0-feb9-4ff3-922a-505c57bb8d65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vansh Wadhwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vansh5846g@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/730c8e42-a4ed-4017-bf93-e9488a8f6a5f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AADITYA RAJ DIXIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaditya.dixit004@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/97dfec47-5602-4b77-8a56-23968699d828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vipransh Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vipransh0228@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/7b77fee4-5b85-4d1a-832d-e409cea1f6e5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhineet Tandon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abhineet.tandon07@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6ac71390-115f-44d0-81ee-aab657acfd6f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shivya arora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shivya2005@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2fa70965-e87d-40ac-87fa-4833a20c03b1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akshat Dwivedi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">akshat.26799@stu.upes.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d22fcd7f-9c9b-4b52-9a4d-267fbef12273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harshit garg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">harshitgarg3008@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/9e5ffebc-8d0a-426c-aa5c-d2bfcf50e047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yashvi Manojkumar Patel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y8shvi@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/c654845d-8212-4f97-b115-7d70e1714546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niharika bhatt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niharikaabhatt21@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e49f1ac1-980c-465a-a6a8-d0a5d954e1a9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drishti Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drishtig1176@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/31399d7b-b3c2-409f-b8c8-239903a9b269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parth Pandey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parthpandey1947@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/240dfabd-b235-474b-aed2-c646c9984aaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anu Yadav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anuyadav9595@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/b0316f65-7f0d-442f-ab5a-209ce2656613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taraksh Goyal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taraksh9a33@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/2b0b65d0-5a81-421c-803a-01093ee3e753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krishna Gera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">krishnageraofficial@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d9611b7e-6496-4f62-a846-e75db7e767cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raghav gaur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raghavgaur.k.s@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d534fa2b-51b9-4454-b100-fe80d793d249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayush kumar singh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singhxayush100@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/87ad7d62-9a8c-407b-b1cb-8de752832455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krishika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">krishika1400@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/33c8ef3f-4f19-4765-9bf0-79c60534ff05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lakshya Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lakshya.gupta2006l@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/e329aa96-f62f-45f4-b1be-4a4bcf8d6f27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhavyansh Tyagi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tyagibhavyansh123@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3660fec4-f40e-491a-bc6b-8d264365c709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siddharth Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guptasiddharth1712@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/26cffbdc-f6f0-4acc-969f-844a606fb65d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anshika Saxena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anshikasaxena1952@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/80cd8b1e-a934-4e7e-aa90-c6a31116c5c8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhinav Yadav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abhinav.7vy@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d6d99559-43ba-4cb8-8f70-58a069bb0aa9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aadvit more</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aadvitmore@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/d63bfcda-e924-448f-868b-b74e6890cd8a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devansh purohit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devanshpurohit1710@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/6e8544ed-c1d9-43dd-b3f2-4fda66865f70</t>
-  </si>
-  <si>
     <t xml:space="preserve">Swastik sachdeva</t>
   </si>
   <si>
@@ -1993,9 +1966,6 @@
     <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/1f80d77a-058a-4784-8b3c-5e7220738131</t>
   </si>
   <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Subhasmita swain</t>
   </si>
   <si>
@@ -2041,7 +2011,7 @@
     <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/3b14c9d5-5ead-42bc-963f-0798512ff263</t>
   </si>
   <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Pub/Sub [Skill Badge]</t>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Prompt Design in Vertex AI [Skill Badge]</t>
   </si>
   <si>
     <t xml:space="preserve">Venya Mehrotra</t>
@@ -2053,9 +2023,6 @@
     <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/20aa03f2-092a-4843-8733-f6158233599c</t>
   </si>
   <si>
-    <t xml:space="preserve">Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vidit Gupta</t>
   </si>
   <si>
@@ -2155,6 +2122,9 @@
     <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/a3145eaa-3380-487f-b5e3-092ffa31f3d2</t>
   </si>
   <si>
+    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Akshit sinha</t>
   </si>
   <si>
@@ -2195,9 +2165,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.cloudskillsboost.google/public_profiles/265856d1-a4d6-4145-ad39-d232250fb0ba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
   </si>
 </sst>
 </file>
@@ -2427,7 +2394,7 @@
   <dimension ref="A1:J225"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2641,7 +2608,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>34</v>
@@ -2763,7 +2730,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>19</v>
@@ -2772,7 +2739,10 @@
         <v>15</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2792,7 +2762,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>19</v>
@@ -2801,7 +2771,10 @@
         <v>15</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2821,7 +2794,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>19</v>
@@ -2830,7 +2803,10 @@
         <v>15</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,7 +2826,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>19</v>
@@ -2859,7 +2835,10 @@
         <v>15</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2876,13 +2855,16 @@
         <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>0</v>
@@ -2905,42 +2887,45 @@
         <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>0</v>
@@ -2948,14 +2933,14 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
@@ -2963,42 +2948,45 @@
         <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>0</v>
@@ -3006,14 +2994,14 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
@@ -3021,27 +3009,30 @@
         <v>14</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -3061,28 +3052,28 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="I22" s="1" t="n">
         <v>0</v>
@@ -3090,14 +3081,14 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
@@ -3105,27 +3096,30 @@
         <v>14</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -3151,13 +3145,13 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -3166,7 +3160,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>19</v>
@@ -3175,18 +3169,21 @@
         <v>15</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>13</v>
@@ -3206,13 +3203,13 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -3221,27 +3218,30 @@
         <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -3267,13 +3267,13 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
@@ -3285,10 +3285,10 @@
         <v>20</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="I29" s="1" t="n">
         <v>0</v>
@@ -3296,13 +3296,13 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -3322,13 +3322,13 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
@@ -3337,7 +3337,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>19</v>
@@ -3346,18 +3346,21 @@
         <v>15</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
@@ -3366,7 +3369,7 @@
         <v>14</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>19</v>
@@ -3375,18 +3378,21 @@
         <v>15</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
@@ -3406,13 +3412,13 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -3432,13 +3438,13 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
@@ -3464,13 +3470,13 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
@@ -3485,7 +3491,7 @@
         <v>5</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="I36" s="1" t="n">
         <v>0</v>
@@ -3493,13 +3499,13 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>13</v>
@@ -3508,27 +3514,30 @@
         <v>14</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -3537,27 +3546,30 @@
         <v>14</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
@@ -3569,10 +3581,10 @@
         <v>20</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="I39" s="1" t="n">
         <v>0</v>
@@ -3580,13 +3592,13 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
@@ -3612,13 +3624,13 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -3627,27 +3639,30 @@
         <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -3667,13 +3682,13 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -3688,7 +3703,7 @@
         <v>9</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I43" s="1" t="n">
         <v>0</v>
@@ -3696,13 +3711,13 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -3714,10 +3729,10 @@
         <v>20</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="I44" s="1" t="n">
         <v>0</v>
@@ -3725,13 +3740,13 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -3740,27 +3755,30 @@
         <v>14</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -3780,13 +3798,13 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -3806,13 +3824,13 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -3832,13 +3850,13 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
@@ -3858,13 +3876,13 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -3884,13 +3902,13 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -3902,10 +3920,10 @@
         <v>20</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="I51" s="1" t="n">
         <v>0</v>
@@ -3913,13 +3931,13 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
@@ -3945,13 +3963,13 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -3971,13 +3989,13 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -4003,13 +4021,13 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
@@ -4029,13 +4047,13 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>13</v>
@@ -4047,10 +4065,10 @@
         <v>20</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I56" s="1" t="n">
         <v>0</v>
@@ -4058,13 +4076,13 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -4073,27 +4091,30 @@
         <v>14</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -4102,27 +4123,30 @@
         <v>14</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -4137,7 +4161,7 @@
         <v>7</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="I59" s="1" t="n">
         <v>0</v>
@@ -4145,25 +4169,28 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="I60" s="1" t="n">
         <v>0</v>
@@ -4171,25 +4198,28 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="D61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="I61" s="1" t="n">
         <v>0</v>
@@ -4197,19 +4227,19 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>20</v>
@@ -4223,13 +4253,13 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -4255,14 +4285,14 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="D64" s="1" t="s">
         <v>13</v>
       </c>
@@ -4270,28 +4300,31 @@
         <v>14</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
       </c>
@@ -4302,10 +4335,10 @@
         <v>20</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c r="I65" s="1" t="n">
         <v>0</v>
@@ -4313,13 +4346,13 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>13</v>
@@ -4328,7 +4361,7 @@
         <v>14</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G66" s="1" t="n">
         <v>19</v>
@@ -4337,18 +4370,21 @@
         <v>15</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>13</v>
@@ -4368,13 +4404,13 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -4383,7 +4419,7 @@
         <v>14</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G68" s="1" t="n">
         <v>19</v>
@@ -4392,18 +4428,21 @@
         <v>15</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>13</v>
@@ -4418,7 +4457,7 @@
         <v>4</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I69" s="1" t="n">
         <v>0</v>
@@ -4426,13 +4465,13 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>13</v>
@@ -4441,27 +4480,30 @@
         <v>14</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>239</v>
+        <v>15</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>13</v>
@@ -4481,13 +4523,13 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>13</v>
@@ -4499,7 +4541,10 @@
         <v>20</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="I72" s="1" t="n">
         <v>0</v>
@@ -4507,13 +4552,13 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -4533,13 +4578,13 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
@@ -4554,7 +4599,7 @@
         <v>8</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>146</v>
+        <v>249</v>
       </c>
       <c r="I74" s="1" t="n">
         <v>0</v>
@@ -4562,13 +4607,13 @@
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -4594,13 +4639,13 @@
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
@@ -4626,13 +4671,13 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>13</v>
@@ -4652,14 +4697,14 @@
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
       </c>
@@ -4667,7 +4712,7 @@
         <v>14</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G78" s="1" t="n">
         <v>19</v>
@@ -4676,18 +4721,21 @@
         <v>15</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -4707,14 +4755,14 @@
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="D80" s="1" t="s">
         <v>13</v>
       </c>
@@ -4725,10 +4773,10 @@
         <v>20</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="I80" s="1" t="n">
         <v>0</v>
@@ -4736,14 +4784,14 @@
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
       </c>
@@ -4751,27 +4799,30 @@
         <v>14</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c r="I81" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -4780,27 +4831,30 @@
         <v>14</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>277</v>
+        <v>15</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>13</v>
@@ -4820,13 +4874,13 @@
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
@@ -4852,13 +4906,13 @@
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>13</v>
@@ -4878,13 +4932,13 @@
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>13</v>
@@ -4893,27 +4947,30 @@
         <v>14</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>289</v>
+        <v>15</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
@@ -4922,27 +4979,30 @@
         <v>14</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G87" s="1" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>293</v>
+        <v>15</v>
       </c>
       <c r="I87" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>13</v>
@@ -4962,13 +5022,13 @@
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>13</v>
@@ -4977,27 +5037,30 @@
         <v>14</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G89" s="1" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="I89" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>13</v>
@@ -5009,10 +5072,10 @@
         <v>20</v>
       </c>
       <c r="G90" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="I90" s="1" t="n">
         <v>0</v>
@@ -5020,13 +5083,13 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>13</v>
@@ -5046,25 +5109,28 @@
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G92" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="I92" s="1" t="n">
         <v>0</v>
@@ -5072,13 +5138,13 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>13</v>
@@ -5090,10 +5156,10 @@
         <v>20</v>
       </c>
       <c r="G93" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="I93" s="1" t="n">
         <v>0</v>
@@ -5101,13 +5167,13 @@
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>13</v>
@@ -5133,13 +5199,13 @@
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
@@ -5159,13 +5225,13 @@
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>13</v>
@@ -5185,13 +5251,13 @@
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>13</v>
@@ -5211,13 +5277,13 @@
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -5237,13 +5303,13 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>13</v>
@@ -5258,7 +5324,7 @@
         <v>4</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>34</v>
+        <v>324</v>
       </c>
       <c r="I99" s="1" t="n">
         <v>0</v>
@@ -5266,13 +5332,13 @@
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>13</v>
@@ -5287,7 +5353,7 @@
         <v>3</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>66</v>
+        <v>242</v>
       </c>
       <c r="I100" s="1" t="n">
         <v>0</v>
@@ -5295,13 +5361,13 @@
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>13</v>
@@ -5310,27 +5376,30 @@
         <v>14</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G101" s="1" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c r="I101" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>13</v>
@@ -5339,24 +5408,30 @@
         <v>14</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G102" s="1" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I102" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
@@ -5368,10 +5443,10 @@
         <v>14</v>
       </c>
       <c r="G103" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c r="I103" s="1" t="n">
         <v>1</v>
@@ -5382,13 +5457,13 @@
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>13</v>
@@ -5414,13 +5489,13 @@
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
@@ -5440,13 +5515,13 @@
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -5455,27 +5530,30 @@
         <v>14</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G106" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="I106" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>13</v>
@@ -5484,27 +5562,30 @@
         <v>14</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G107" s="1" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I107" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -5527,13 +5608,13 @@
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>13</v>
@@ -5548,7 +5629,7 @@
         <v>1</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="I109" s="1" t="n">
         <v>0</v>
@@ -5556,13 +5637,13 @@
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>13</v>
@@ -5588,13 +5669,13 @@
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>13</v>
@@ -5614,13 +5695,13 @@
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>13</v>
@@ -5640,13 +5721,13 @@
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>13</v>
@@ -5666,13 +5747,13 @@
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>13</v>
@@ -5692,13 +5773,13 @@
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>13</v>
@@ -5724,13 +5805,13 @@
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>13</v>
@@ -5739,27 +5820,30 @@
         <v>14</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G116" s="1" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I116" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>13</v>
@@ -5768,27 +5852,30 @@
         <v>14</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G117" s="1" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>136</v>
+        <v>381</v>
       </c>
       <c r="I117" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>13</v>
@@ -5814,13 +5901,13 @@
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>13</v>
@@ -5840,13 +5927,13 @@
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>13</v>
@@ -5855,27 +5942,30 @@
         <v>14</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G120" s="1" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>314</v>
+        <v>15</v>
       </c>
       <c r="I120" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>13</v>
@@ -5887,10 +5977,10 @@
         <v>20</v>
       </c>
       <c r="G121" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="I121" s="1" t="n">
         <v>0</v>
@@ -5898,13 +5988,13 @@
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>13</v>
@@ -5924,13 +6014,13 @@
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>13</v>
@@ -5939,27 +6029,30 @@
         <v>14</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G123" s="1" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="I123" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>13</v>
@@ -5979,13 +6072,13 @@
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>13</v>
@@ -6011,13 +6104,13 @@
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>13</v>
@@ -6037,13 +6130,13 @@
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>13</v>
@@ -6063,13 +6156,13 @@
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>13</v>
@@ -6089,13 +6182,13 @@
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>13</v>
@@ -6110,18 +6203,21 @@
         <v>0</v>
       </c>
       <c r="I129" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>13</v>
@@ -6141,13 +6237,13 @@
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>13</v>
@@ -6156,27 +6252,30 @@
         <v>14</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G131" s="1" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>432</v>
+        <v>15</v>
       </c>
       <c r="I131" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>13</v>
@@ -6202,13 +6301,13 @@
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>13</v>
@@ -6234,13 +6333,13 @@
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>13</v>
@@ -6249,7 +6348,7 @@
         <v>14</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G134" s="1" t="n">
         <v>19</v>
@@ -6258,18 +6357,21 @@
         <v>15</v>
       </c>
       <c r="I134" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>13</v>
@@ -6278,7 +6380,7 @@
         <v>14</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G135" s="1" t="n">
         <v>19</v>
@@ -6287,18 +6389,21 @@
         <v>15</v>
       </c>
       <c r="I135" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>13</v>
@@ -6310,7 +6415,10 @@
         <v>20</v>
       </c>
       <c r="G136" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I136" s="1" t="n">
         <v>0</v>
@@ -6318,13 +6426,13 @@
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>13</v>
@@ -6336,7 +6444,10 @@
         <v>20</v>
       </c>
       <c r="G137" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I137" s="1" t="n">
         <v>0</v>
@@ -6344,13 +6455,13 @@
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>13</v>
@@ -6370,13 +6481,13 @@
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>13</v>
@@ -6402,13 +6513,13 @@
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>13</v>
@@ -6434,13 +6545,13 @@
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>13</v>
@@ -6466,13 +6577,13 @@
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>13</v>
@@ -6498,13 +6609,13 @@
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>13</v>
@@ -6530,13 +6641,13 @@
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>13</v>
@@ -6551,7 +6662,7 @@
         <v>5</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="I144" s="1" t="n">
         <v>0</v>
@@ -6559,13 +6670,13 @@
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>13</v>
@@ -6585,13 +6696,13 @@
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>13</v>
@@ -6603,10 +6714,10 @@
         <v>20</v>
       </c>
       <c r="G146" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>34</v>
+        <v>470</v>
       </c>
       <c r="I146" s="1" t="n">
         <v>0</v>
@@ -6614,13 +6725,13 @@
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>13</v>
@@ -6635,7 +6746,7 @@
         <v>1</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="I147" s="1" t="n">
         <v>0</v>
@@ -6643,13 +6754,13 @@
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>13</v>
@@ -6658,27 +6769,30 @@
         <v>14</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G148" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>485</v>
+        <v>15</v>
       </c>
       <c r="I148" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>13</v>
@@ -6704,13 +6818,13 @@
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>13</v>
@@ -6722,10 +6836,10 @@
         <v>20</v>
       </c>
       <c r="G150" s="1" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>492</v>
+        <v>15</v>
       </c>
       <c r="I150" s="1" t="n">
         <v>0</v>
@@ -6733,13 +6847,13 @@
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>13</v>
@@ -6759,13 +6873,13 @@
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>13</v>
@@ -6774,27 +6888,30 @@
         <v>14</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G152" s="1" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I152" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>13</v>
@@ -6806,10 +6923,10 @@
         <v>20</v>
       </c>
       <c r="G153" s="1" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="I153" s="1" t="n">
         <v>0</v>
@@ -6817,13 +6934,13 @@
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>13</v>
@@ -6832,27 +6949,30 @@
         <v>14</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>506</v>
+        <v>15</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>13</v>
@@ -6872,13 +6992,13 @@
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>13</v>
@@ -6904,13 +7024,13 @@
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>13</v>
@@ -6930,13 +7050,13 @@
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>13</v>
@@ -6956,13 +7076,13 @@
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>13</v>
@@ -6982,13 +7102,13 @@
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>13</v>
@@ -7000,10 +7120,10 @@
         <v>20</v>
       </c>
       <c r="G160" s="1" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="I160" s="1" t="n">
         <v>0</v>
@@ -7011,13 +7131,13 @@
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>13</v>
@@ -7026,27 +7146,30 @@
         <v>14</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G161" s="1" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>314</v>
+        <v>519</v>
       </c>
       <c r="I161" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>13</v>
@@ -7066,39 +7189,45 @@
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G163" s="1" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I163" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>13</v>
@@ -7124,13 +7253,13 @@
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>13</v>
@@ -7150,13 +7279,13 @@
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>13</v>
@@ -7171,7 +7300,7 @@
         <v>3</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>66</v>
+        <v>242</v>
       </c>
       <c r="I166" s="1" t="n">
         <v>0</v>
@@ -7179,13 +7308,13 @@
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>13</v>
@@ -7194,27 +7323,30 @@
         <v>14</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G167" s="1" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c r="I167" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>13</v>
@@ -7234,13 +7366,13 @@
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>13</v>
@@ -7255,7 +7387,7 @@
         <v>5</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="I169" s="1" t="n">
         <v>0</v>
@@ -7263,13 +7395,13 @@
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>13</v>
@@ -7289,13 +7421,13 @@
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>13</v>
@@ -7315,13 +7447,13 @@
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>13</v>
@@ -7341,13 +7473,13 @@
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>13</v>
@@ -7367,13 +7499,13 @@
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>13</v>
@@ -7393,13 +7525,13 @@
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>13</v>
@@ -7414,7 +7546,7 @@
         <v>10</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="I175" s="1" t="n">
         <v>0</v>
@@ -7422,13 +7554,13 @@
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>13</v>
@@ -7437,7 +7569,7 @@
         <v>14</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G176" s="1" t="n">
         <v>19</v>
@@ -7446,18 +7578,21 @@
         <v>15</v>
       </c>
       <c r="I176" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>13</v>
@@ -7483,13 +7618,13 @@
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>13</v>
@@ -7515,13 +7650,13 @@
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>13</v>
@@ -7547,13 +7682,13 @@
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>13</v>
@@ -7573,13 +7708,13 @@
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>13</v>
@@ -7605,13 +7740,13 @@
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>13</v>
@@ -7637,13 +7772,13 @@
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>13</v>
@@ -7663,13 +7798,13 @@
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>13</v>
@@ -7689,13 +7824,13 @@
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>13</v>
@@ -7715,13 +7850,13 @@
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>13</v>
@@ -7747,13 +7882,13 @@
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>13</v>
@@ -7762,27 +7897,30 @@
         <v>14</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G187" s="1" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>608</v>
+        <v>15</v>
       </c>
       <c r="I187" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>13</v>
@@ -7802,13 +7940,13 @@
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>13</v>
@@ -7820,7 +7958,10 @@
         <v>20</v>
       </c>
       <c r="G189" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="I189" s="1" t="n">
         <v>0</v>
@@ -7828,13 +7969,13 @@
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>13</v>
@@ -7846,10 +7987,10 @@
         <v>20</v>
       </c>
       <c r="G190" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>314</v>
+        <v>125</v>
       </c>
       <c r="I190" s="1" t="n">
         <v>0</v>
@@ -7857,13 +7998,13 @@
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>13</v>
@@ -7883,13 +8024,13 @@
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>13</v>
@@ -7898,24 +8039,30 @@
         <v>14</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G192" s="1" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I192" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>13</v>
@@ -7935,13 +8082,13 @@
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>13</v>
@@ -7961,13 +8108,13 @@
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>13</v>
@@ -7987,13 +8134,13 @@
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>13</v>
@@ -8019,13 +8166,13 @@
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>13</v>
@@ -8045,13 +8192,13 @@
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>13</v>
@@ -8071,13 +8218,13 @@
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>13</v>
@@ -8089,10 +8236,10 @@
         <v>20</v>
       </c>
       <c r="G199" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="I199" s="1" t="n">
         <v>0</v>
@@ -8100,13 +8247,13 @@
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>13</v>
@@ -8121,7 +8268,7 @@
         <v>1</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>314</v>
+        <v>605</v>
       </c>
       <c r="I200" s="1" t="n">
         <v>0</v>
@@ -8129,13 +8276,13 @@
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>13</v>
@@ -8155,13 +8302,13 @@
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>13</v>
@@ -8187,13 +8334,13 @@
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>13</v>
@@ -8202,27 +8349,30 @@
         <v>14</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G203" s="1" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>657</v>
+        <v>15</v>
       </c>
       <c r="I203" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>13</v>
@@ -8242,13 +8392,13 @@
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>13</v>
@@ -8274,13 +8424,13 @@
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>13</v>
@@ -8306,13 +8456,13 @@
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>13</v>
@@ -8332,13 +8482,13 @@
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>13</v>
@@ -8350,10 +8500,10 @@
         <v>20</v>
       </c>
       <c r="G208" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="I208" s="1" t="n">
         <v>0</v>
@@ -8361,13 +8511,13 @@
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>13</v>
@@ -8376,27 +8526,30 @@
         <v>14</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G209" s="1" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>677</v>
+        <v>15</v>
       </c>
       <c r="I209" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>13</v>
@@ -8405,7 +8558,7 @@
         <v>14</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G210" s="1" t="n">
         <v>19</v>
@@ -8414,18 +8567,21 @@
         <v>15</v>
       </c>
       <c r="I210" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>13</v>
@@ -8437,7 +8593,10 @@
         <v>20</v>
       </c>
       <c r="G211" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="I211" s="1" t="n">
         <v>0</v>
@@ -8445,13 +8604,13 @@
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>13</v>
@@ -8471,13 +8630,13 @@
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>13</v>
@@ -8497,13 +8656,13 @@
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>13</v>
@@ -8529,13 +8688,13 @@
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>13</v>
@@ -8555,13 +8714,13 @@
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>13</v>
@@ -8581,13 +8740,13 @@
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>13</v>
@@ -8613,13 +8772,13 @@
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>13</v>
@@ -8639,25 +8798,28 @@
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G219" s="1" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I219" s="1" t="n">
         <v>0</v>
@@ -8665,13 +8827,13 @@
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>13</v>
@@ -8683,7 +8845,10 @@
         <v>20</v>
       </c>
       <c r="G220" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>700</v>
       </c>
       <c r="I220" s="1" t="n">
         <v>0</v>
@@ -8691,13 +8856,13 @@
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>13</v>
@@ -8717,13 +8882,13 @@
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>13</v>
@@ -8743,13 +8908,13 @@
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>13</v>
@@ -8758,7 +8923,7 @@
         <v>14</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G223" s="1" t="n">
         <v>19</v>
@@ -8767,18 +8932,21 @@
         <v>15</v>
       </c>
       <c r="I223" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>13</v>
@@ -8787,27 +8955,30 @@
         <v>14</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G224" s="1" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="I224" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>13</v>
@@ -8816,16 +8987,19 @@
         <v>14</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G225" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>725</v>
+        <v>15</v>
       </c>
       <c r="I225" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
